--- a/Instancias XLS/Instancia 2.xlsx
+++ b/Instancias XLS/Instancia 2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiago\OneDrive\Área de Trabalho\Allocation-of-aircraft\Instancias XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBC456C-E964-430E-A2A6-BB219651107A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFF3601-0418-429D-AAAB-1299364CD6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{81D158DC-F0AC-4EEC-A844-8E5BCD381D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$F$374</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="20">
   <si>
     <t>AZU</t>
   </si>
@@ -89,6 +92,9 @@
   <si>
     <t>SBSV</t>
   </si>
+  <si>
+    <t>Numero de Passageiros</t>
+  </si>
 </sst>
 </file>
 
@@ -123,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B699AF-AF0B-4F90-9908-DE2C64C803C9}">
-  <dimension ref="A1:K235"/>
+  <dimension ref="A1:L228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K235"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A196" activeCellId="2" sqref="A185:XFD186 A188:XFD190 A196:XFD196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,9 +467,11 @@
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -494,8 +505,11 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -529,8 +543,11 @@
       <c r="K2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -564,8 +581,11 @@
       <c r="K3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -599,8 +619,11 @@
       <c r="K4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -634,8 +657,11 @@
       <c r="K5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -669,8 +695,11 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -704,8 +733,11 @@
       <c r="K7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -739,8 +771,11 @@
       <c r="K8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -774,8 +809,11 @@
       <c r="K9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -809,8 +847,11 @@
       <c r="K10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -844,8 +885,11 @@
       <c r="K11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -879,8 +923,11 @@
       <c r="K12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -914,8 +961,11 @@
       <c r="K13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -949,8 +999,11 @@
       <c r="K14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -984,8 +1037,11 @@
       <c r="K15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1019,8 +1075,11 @@
       <c r="K16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1054,8 +1113,11 @@
       <c r="K17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1151,11 @@
       <c r="K18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1189,11 @@
       <c r="K19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1159,8 +1227,11 @@
       <c r="K20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1194,8 +1265,11 @@
       <c r="K21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1303,11 @@
       <c r="K22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1264,8 +1341,11 @@
       <c r="K23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1299,8 +1379,11 @@
       <c r="K24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1334,8 +1417,11 @@
       <c r="K25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1369,8 +1455,11 @@
       <c r="K26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1404,8 +1493,11 @@
       <c r="K27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1439,8 +1531,11 @@
       <c r="K28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1474,8 +1569,11 @@
       <c r="K29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1509,8 +1607,11 @@
       <c r="K30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1544,8 +1645,11 @@
       <c r="K31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1579,8 +1683,11 @@
       <c r="K32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +1721,11 @@
       <c r="K33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1649,8 +1759,11 @@
       <c r="K34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1684,8 +1797,11 @@
       <c r="K35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1719,8 +1835,11 @@
       <c r="K36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1754,8 +1873,11 @@
       <c r="K37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1789,8 +1911,11 @@
       <c r="K38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1824,8 +1949,11 @@
       <c r="K39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1859,43 +1987,49 @@
       <c r="K40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41">
-        <v>2560</v>
+        <v>2585</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
       <c r="G41" s="1">
-        <v>43345.324305555558</v>
+        <v>43345.930555555555</v>
       </c>
       <c r="H41" s="1">
-        <v>43345.324305555558</v>
+        <v>43345.927777777775</v>
       </c>
       <c r="I41" s="1">
-        <v>43345.336805555555</v>
+        <v>43345.989583333336</v>
       </c>
       <c r="J41" s="1">
-        <v>43345.336805555555</v>
+        <v>43345.984722222223</v>
       </c>
       <c r="K41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1915,22 +2049,25 @@
         <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>43345.930555555555</v>
+        <v>43346.930555555555</v>
       </c>
       <c r="H42" s="1">
-        <v>43345.927777777775</v>
+        <v>43346.930555555555</v>
       </c>
       <c r="I42" s="1">
-        <v>43345.989583333336</v>
+        <v>43346.989583333336</v>
       </c>
       <c r="J42" s="1">
-        <v>43345.984722222223</v>
+        <v>43346.989583333336</v>
       </c>
       <c r="K42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1950,22 +2087,25 @@
         <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>43346.930555555555</v>
+        <v>43347.930555555555</v>
       </c>
       <c r="H43" s="1">
-        <v>43346.930555555555</v>
+        <v>43347.925694444442</v>
       </c>
       <c r="I43" s="1">
-        <v>43346.989583333336</v>
+        <v>43347.989583333336</v>
       </c>
       <c r="J43" s="1">
-        <v>43346.989583333336</v>
+        <v>43347.982638888891</v>
       </c>
       <c r="K43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1985,22 +2125,25 @@
         <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>43347.930555555555</v>
+        <v>43348.930555555555</v>
       </c>
       <c r="H44" s="1">
-        <v>43347.925694444442</v>
+        <v>43348.927083333336</v>
       </c>
       <c r="I44" s="1">
-        <v>43347.989583333336</v>
+        <v>43348.989583333336</v>
       </c>
       <c r="J44" s="1">
-        <v>43347.982638888891</v>
+        <v>43348.98333333333</v>
       </c>
       <c r="K44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2020,22 +2163,25 @@
         <v>3</v>
       </c>
       <c r="G45" s="1">
-        <v>43348.930555555555</v>
+        <v>43349.993055555555</v>
       </c>
       <c r="H45" s="1">
-        <v>43348.927083333336</v>
+        <v>43349.98541666667</v>
       </c>
       <c r="I45" s="1">
-        <v>43348.989583333336</v>
+        <v>43350.052083333336</v>
       </c>
       <c r="J45" s="1">
-        <v>43348.98333333333</v>
+        <v>43350.040277777778</v>
       </c>
       <c r="K45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -2055,27 +2201,30 @@
         <v>3</v>
       </c>
       <c r="G46" s="1">
-        <v>43349.993055555555</v>
+        <v>43350.930555555555</v>
       </c>
       <c r="H46" s="1">
-        <v>43349.98541666667</v>
+        <v>43350.925000000003</v>
       </c>
       <c r="I46" s="1">
-        <v>43350.052083333336</v>
+        <v>43350.989583333336</v>
       </c>
       <c r="J46" s="1">
-        <v>43350.040277777778</v>
+        <v>43350.979861111111</v>
       </c>
       <c r="K46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47">
-        <v>2585</v>
+        <v>2590</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2084,28 +2233,31 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>43350.930555555555</v>
+        <v>43344.40625</v>
       </c>
       <c r="H47" s="1">
-        <v>43350.925000000003</v>
+        <v>43344.40625</v>
       </c>
       <c r="I47" s="1">
-        <v>43350.989583333336</v>
+        <v>43344.451388888891</v>
       </c>
       <c r="J47" s="1">
-        <v>43350.979861111111</v>
+        <v>43344.451388888891</v>
       </c>
       <c r="K47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -2125,22 +2277,25 @@
         <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>43344.40625</v>
+        <v>43345.416666666664</v>
       </c>
       <c r="H48" s="1">
-        <v>43344.40625</v>
+        <v>43345.414583333331</v>
       </c>
       <c r="I48" s="1">
-        <v>43344.451388888891</v>
+        <v>43345.465277777781</v>
       </c>
       <c r="J48" s="1">
-        <v>43344.451388888891</v>
+        <v>43345.460416666669</v>
       </c>
       <c r="K48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -2160,22 +2315,25 @@
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>43345.416666666664</v>
+        <v>43346.399305555555</v>
       </c>
       <c r="H49" s="1">
-        <v>43345.414583333331</v>
+        <v>43346.390277777777</v>
       </c>
       <c r="I49" s="1">
-        <v>43345.465277777781</v>
+        <v>43346.444444444445</v>
       </c>
       <c r="J49" s="1">
-        <v>43345.460416666669</v>
+        <v>43346.4375</v>
       </c>
       <c r="K49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -2195,22 +2353,25 @@
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>43346.399305555555</v>
+        <v>43347.409722222219</v>
       </c>
       <c r="H50" s="1">
-        <v>43346.390277777777</v>
+        <v>43347.406944444447</v>
       </c>
       <c r="I50" s="1">
-        <v>43346.444444444445</v>
+        <v>43347.454861111109</v>
       </c>
       <c r="J50" s="1">
-        <v>43346.4375</v>
+        <v>43347.45208333333</v>
       </c>
       <c r="K50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2230,22 +2391,25 @@
         <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>43347.409722222219</v>
+        <v>43348.409722222219</v>
       </c>
       <c r="H51" s="1">
-        <v>43347.406944444447</v>
+        <v>43348.406944444447</v>
       </c>
       <c r="I51" s="1">
-        <v>43347.454861111109</v>
+        <v>43348.454861111109</v>
       </c>
       <c r="J51" s="1">
-        <v>43347.45208333333</v>
+        <v>43348.452777777777</v>
       </c>
       <c r="K51" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2265,27 +2429,30 @@
         <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>43348.409722222219</v>
+        <v>43349.409722222219</v>
       </c>
       <c r="H52" s="1">
-        <v>43348.406944444447</v>
+        <v>43349.412499999999</v>
       </c>
       <c r="I52" s="1">
-        <v>43348.454861111109</v>
+        <v>43349.454861111109</v>
       </c>
       <c r="J52" s="1">
-        <v>43348.452777777777</v>
+        <v>43349.450694444444</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>0</v>
       </c>
       <c r="B53">
-        <v>2590</v>
+        <v>2602</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2294,28 +2461,31 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1">
-        <v>43349.409722222219</v>
+        <v>43346.524305555555</v>
       </c>
       <c r="H53" s="1">
-        <v>43349.412499999999</v>
+        <v>43346.522222222222</v>
       </c>
       <c r="I53" s="1">
-        <v>43349.454861111109</v>
+        <v>43346.579861111109</v>
       </c>
       <c r="J53" s="1">
-        <v>43349.450694444444</v>
+        <v>43346.574999999997</v>
       </c>
       <c r="K53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2335,22 +2505,25 @@
         <v>5</v>
       </c>
       <c r="G54" s="1">
-        <v>43346.524305555555</v>
+        <v>43347.524305555555</v>
       </c>
       <c r="H54" s="1">
-        <v>43346.522222222222</v>
+        <v>43347.521527777775</v>
       </c>
       <c r="I54" s="1">
-        <v>43346.579861111109</v>
+        <v>43347.579861111109</v>
       </c>
       <c r="J54" s="1">
-        <v>43346.574999999997</v>
+        <v>43347.595138888886</v>
       </c>
       <c r="K54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -2370,22 +2543,25 @@
         <v>5</v>
       </c>
       <c r="G55" s="1">
-        <v>43347.524305555555</v>
+        <v>43348.524305555555</v>
       </c>
       <c r="H55" s="1">
-        <v>43347.521527777775</v>
+        <v>43348.520833333336</v>
       </c>
       <c r="I55" s="1">
-        <v>43347.579861111109</v>
+        <v>43348.579861111109</v>
       </c>
       <c r="J55" s="1">
-        <v>43347.595138888886</v>
+        <v>43348.57708333333</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -2405,27 +2581,30 @@
         <v>5</v>
       </c>
       <c r="G56" s="1">
-        <v>43348.524305555555</v>
+        <v>43349.524305555555</v>
       </c>
       <c r="H56" s="1">
-        <v>43348.520833333336</v>
+        <v>43349.523611111108</v>
       </c>
       <c r="I56" s="1">
-        <v>43348.579861111109</v>
+        <v>43349.579861111109</v>
       </c>
       <c r="J56" s="1">
-        <v>43348.57708333333</v>
+        <v>43349.577777777777</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
       <c r="B57">
-        <v>2602</v>
+        <v>2634</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2440,27 +2619,30 @@
         <v>5</v>
       </c>
       <c r="G57" s="1">
-        <v>43349.524305555555</v>
+        <v>43345.496527777781</v>
       </c>
       <c r="H57" s="1">
-        <v>43349.523611111108</v>
+        <v>43345.492361111108</v>
       </c>
       <c r="I57" s="1">
-        <v>43349.579861111109</v>
+        <v>43345.552083333336</v>
       </c>
       <c r="J57" s="1">
-        <v>43349.577777777777</v>
+        <v>43345.547222222223</v>
       </c>
       <c r="K57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>0</v>
       </c>
       <c r="B58">
-        <v>2634</v>
+        <v>2658</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2469,63 +2651,69 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>43344.28125</v>
+      </c>
+      <c r="H58" s="1">
+        <v>43344.277083333334</v>
+      </c>
+      <c r="I58" s="1">
+        <v>43344.333333333336</v>
+      </c>
+      <c r="J58" s="1">
+        <v>43344.330555555556</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2671</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="1">
-        <v>43345.496527777781</v>
-      </c>
-      <c r="H58" s="1">
-        <v>43345.492361111108</v>
-      </c>
-      <c r="I58" s="1">
-        <v>43345.552083333336</v>
-      </c>
-      <c r="J58" s="1">
-        <v>43345.547222222223</v>
-      </c>
-      <c r="K58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>2658</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
       <c r="G59" s="1">
-        <v>43344.28125</v>
+        <v>43345.732638888891</v>
       </c>
       <c r="H59" s="1">
-        <v>43344.277083333334</v>
+        <v>43345.732638888891</v>
       </c>
       <c r="I59" s="1">
-        <v>43344.333333333336</v>
+        <v>43345.788194444445</v>
       </c>
       <c r="J59" s="1">
-        <v>43344.330555555556</v>
+        <v>43345.788194444445</v>
       </c>
       <c r="K59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2545,22 +2733,25 @@
         <v>5</v>
       </c>
       <c r="G60" s="1">
-        <v>43345.732638888891</v>
+        <v>43346.732638888891</v>
       </c>
       <c r="H60" s="1">
-        <v>43345.732638888891</v>
+        <v>43346.729166666664</v>
       </c>
       <c r="I60" s="1">
-        <v>43345.788194444445</v>
+        <v>43346.788194444445</v>
       </c>
       <c r="J60" s="1">
-        <v>43345.788194444445</v>
+        <v>43346.786111111112</v>
       </c>
       <c r="K60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2580,22 +2771,25 @@
         <v>5</v>
       </c>
       <c r="G61" s="1">
-        <v>43346.732638888891</v>
+        <v>43347.732638888891</v>
       </c>
       <c r="H61" s="1">
-        <v>43346.729166666664</v>
+        <v>43347.732638888891</v>
       </c>
       <c r="I61" s="1">
-        <v>43346.788194444445</v>
+        <v>43347.788194444445</v>
       </c>
       <c r="J61" s="1">
-        <v>43346.786111111112</v>
+        <v>43347.788194444445</v>
       </c>
       <c r="K61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2615,22 +2809,25 @@
         <v>5</v>
       </c>
       <c r="G62" s="1">
-        <v>43347.732638888891</v>
+        <v>43348.732638888891</v>
       </c>
       <c r="H62" s="1">
-        <v>43347.732638888891</v>
+        <v>43348.727777777778</v>
       </c>
       <c r="I62" s="1">
-        <v>43347.788194444445</v>
+        <v>43348.788194444445</v>
       </c>
       <c r="J62" s="1">
-        <v>43347.788194444445</v>
+        <v>43348.785416666666</v>
       </c>
       <c r="K62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2650,27 +2847,30 @@
         <v>5</v>
       </c>
       <c r="G63" s="1">
-        <v>43348.732638888891</v>
+        <v>43349.732638888891</v>
       </c>
       <c r="H63" s="1">
-        <v>43348.727777777778</v>
+        <v>43349.729861111111</v>
       </c>
       <c r="I63" s="1">
-        <v>43348.788194444445</v>
+        <v>43349.788194444445</v>
       </c>
       <c r="J63" s="1">
-        <v>43348.785416666666</v>
+        <v>43349.786111111112</v>
       </c>
       <c r="K63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
       <c r="B64">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2679,28 +2879,31 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>43349.732638888891</v>
+        <v>43345.631944444445</v>
       </c>
       <c r="H64" s="1">
-        <v>43349.729861111111</v>
+        <v>43345.625694444447</v>
       </c>
       <c r="I64" s="1">
-        <v>43349.788194444445</v>
+        <v>43345.684027777781</v>
       </c>
       <c r="J64" s="1">
-        <v>43349.786111111112</v>
+        <v>43345.677777777775</v>
       </c>
       <c r="K64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2720,22 +2923,25 @@
         <v>2</v>
       </c>
       <c r="G65" s="1">
-        <v>43345.631944444445</v>
+        <v>43346.631944444445</v>
       </c>
       <c r="H65" s="1">
-        <v>43345.625694444447</v>
+        <v>43346.624305555553</v>
       </c>
       <c r="I65" s="1">
-        <v>43345.684027777781</v>
+        <v>43346.684027777781</v>
       </c>
       <c r="J65" s="1">
-        <v>43345.677777777775</v>
+        <v>43346.683333333334</v>
       </c>
       <c r="K65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2755,22 +2961,25 @@
         <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>43346.631944444445</v>
+        <v>43347.631944444445</v>
       </c>
       <c r="H66" s="1">
-        <v>43346.624305555553</v>
+        <v>43347.636805555558</v>
       </c>
       <c r="I66" s="1">
-        <v>43346.684027777781</v>
+        <v>43347.684027777781</v>
       </c>
       <c r="J66" s="1">
-        <v>43346.683333333334</v>
+        <v>43347.706944444442</v>
       </c>
       <c r="K66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2790,22 +2999,25 @@
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <v>43347.631944444445</v>
+        <v>43348.631944444445</v>
       </c>
       <c r="H67" s="1">
-        <v>43347.636805555558</v>
+        <v>43348.627083333333</v>
       </c>
       <c r="I67" s="1">
-        <v>43347.684027777781</v>
+        <v>43348.684027777781</v>
       </c>
       <c r="J67" s="1">
-        <v>43347.706944444442</v>
+        <v>43348.675694444442</v>
       </c>
       <c r="K67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2825,27 +3037,30 @@
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <v>43348.631944444445</v>
+        <v>43349.631944444445</v>
       </c>
       <c r="H68" s="1">
-        <v>43348.627083333333</v>
+        <v>43349.624305555553</v>
       </c>
       <c r="I68" s="1">
-        <v>43348.684027777781</v>
+        <v>43349.684027777781</v>
       </c>
       <c r="J68" s="1">
-        <v>43348.675694444442</v>
+        <v>43349.683333333334</v>
       </c>
       <c r="K68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2860,22 +3075,25 @@
         <v>2</v>
       </c>
       <c r="G69" s="1">
-        <v>43349.631944444445</v>
+        <v>43345.756944444445</v>
       </c>
       <c r="H69" s="1">
-        <v>43349.624305555553</v>
+        <v>43345.756944444445</v>
       </c>
       <c r="I69" s="1">
-        <v>43349.684027777781</v>
+        <v>43345.809027777781</v>
       </c>
       <c r="J69" s="1">
-        <v>43349.683333333334</v>
+        <v>43345.809027777781</v>
       </c>
       <c r="K69" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2895,22 +3113,25 @@
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <v>43345.756944444445</v>
+        <v>43346.756944444445</v>
       </c>
       <c r="H70" s="1">
-        <v>43345.756944444445</v>
+        <v>43346.756944444445</v>
       </c>
       <c r="I70" s="1">
-        <v>43345.809027777781</v>
+        <v>43346.809027777781</v>
       </c>
       <c r="J70" s="1">
-        <v>43345.809027777781</v>
+        <v>43346.809027777781</v>
       </c>
       <c r="K70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2930,22 +3151,25 @@
         <v>2</v>
       </c>
       <c r="G71" s="1">
-        <v>43346.756944444445</v>
+        <v>43347.756944444445</v>
       </c>
       <c r="H71" s="1">
-        <v>43346.756944444445</v>
+        <v>43347.756944444445</v>
       </c>
       <c r="I71" s="1">
-        <v>43346.809027777781</v>
+        <v>43347.809027777781</v>
       </c>
       <c r="J71" s="1">
-        <v>43346.809027777781</v>
+        <v>43347.809027777781</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2965,22 +3189,25 @@
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <v>43347.756944444445</v>
+        <v>43348.756944444445</v>
       </c>
       <c r="H72" s="1">
-        <v>43347.756944444445</v>
+        <v>43348.748611111114</v>
       </c>
       <c r="I72" s="1">
-        <v>43347.809027777781</v>
+        <v>43348.809027777781</v>
       </c>
       <c r="J72" s="1">
-        <v>43347.809027777781</v>
+        <v>43348.800694444442</v>
       </c>
       <c r="K72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3000,27 +3227,30 @@
         <v>2</v>
       </c>
       <c r="G73" s="1">
-        <v>43348.756944444445</v>
+        <v>43349.756944444445</v>
       </c>
       <c r="H73" s="1">
-        <v>43348.748611111114</v>
+        <v>43349.756944444445</v>
       </c>
       <c r="I73" s="1">
-        <v>43348.809027777781</v>
+        <v>43349.809027777781</v>
       </c>
       <c r="J73" s="1">
-        <v>43348.800694444442</v>
+        <v>43349.809027777781</v>
       </c>
       <c r="K73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
       <c r="B74">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3029,28 +3259,31 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="F74" t="s">
-        <v>2</v>
-      </c>
       <c r="G74" s="1">
-        <v>43349.756944444445</v>
+        <v>43344.878472222219</v>
       </c>
       <c r="H74" s="1">
-        <v>43349.756944444445</v>
+        <v>43344.875694444447</v>
       </c>
       <c r="I74" s="1">
-        <v>43349.809027777781</v>
+        <v>43344.934027777781</v>
       </c>
       <c r="J74" s="1">
-        <v>43349.809027777781</v>
+        <v>43344.926388888889</v>
       </c>
       <c r="K74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -3070,22 +3303,25 @@
         <v>5</v>
       </c>
       <c r="G75" s="1">
-        <v>43344.878472222219</v>
+        <v>43345.878472222219</v>
       </c>
       <c r="H75" s="1">
-        <v>43344.875694444447</v>
+        <v>43345.87777777778</v>
       </c>
       <c r="I75" s="1">
-        <v>43344.934027777781</v>
+        <v>43345.934027777781</v>
       </c>
       <c r="J75" s="1">
-        <v>43344.926388888889</v>
+        <v>43345.928472222222</v>
       </c>
       <c r="K75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -3105,22 +3341,25 @@
         <v>5</v>
       </c>
       <c r="G76" s="1">
-        <v>43345.878472222219</v>
+        <v>43346.878472222219</v>
       </c>
       <c r="H76" s="1">
-        <v>43345.87777777778</v>
+        <v>43346.878472222219</v>
       </c>
       <c r="I76" s="1">
-        <v>43345.934027777781</v>
+        <v>43346.934027777781</v>
       </c>
       <c r="J76" s="1">
-        <v>43345.928472222222</v>
+        <v>43346.934027777781</v>
       </c>
       <c r="K76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -3140,22 +3379,25 @@
         <v>5</v>
       </c>
       <c r="G77" s="1">
-        <v>43346.878472222219</v>
+        <v>43347.878472222219</v>
       </c>
       <c r="H77" s="1">
-        <v>43346.878472222219</v>
+        <v>43347.878472222219</v>
       </c>
       <c r="I77" s="1">
-        <v>43346.934027777781</v>
+        <v>43347.934027777781</v>
       </c>
       <c r="J77" s="1">
-        <v>43346.934027777781</v>
+        <v>43347.934027777781</v>
       </c>
       <c r="K77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -3175,22 +3417,25 @@
         <v>5</v>
       </c>
       <c r="G78" s="1">
-        <v>43347.878472222219</v>
+        <v>43348.878472222219</v>
       </c>
       <c r="H78" s="1">
-        <v>43347.878472222219</v>
+        <v>43348.875694444447</v>
       </c>
       <c r="I78" s="1">
-        <v>43347.934027777781</v>
+        <v>43348.934027777781</v>
       </c>
       <c r="J78" s="1">
-        <v>43347.934027777781</v>
+        <v>43348.932638888888</v>
       </c>
       <c r="K78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -3210,27 +3455,30 @@
         <v>5</v>
       </c>
       <c r="G79" s="1">
-        <v>43348.878472222219</v>
+        <v>43349.878472222219</v>
       </c>
       <c r="H79" s="1">
-        <v>43348.875694444447</v>
+        <v>43349.878472222219</v>
       </c>
       <c r="I79" s="1">
-        <v>43348.934027777781</v>
+        <v>43349.934027777781</v>
       </c>
       <c r="J79" s="1">
-        <v>43348.932638888888</v>
+        <v>43349.934027777781</v>
       </c>
       <c r="K79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>0</v>
       </c>
       <c r="B80">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3245,22 +3493,25 @@
         <v>5</v>
       </c>
       <c r="G80" s="1">
-        <v>43349.878472222219</v>
+        <v>43346.333333333336</v>
       </c>
       <c r="H80" s="1">
-        <v>43349.878472222219</v>
+        <v>43346.333333333336</v>
       </c>
       <c r="I80" s="1">
-        <v>43349.934027777781</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="J80" s="1">
-        <v>43349.934027777781</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="K80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -3280,22 +3531,25 @@
         <v>5</v>
       </c>
       <c r="G81" s="1">
-        <v>43346.333333333336</v>
+        <v>43347.333333333336</v>
       </c>
       <c r="H81" s="1">
-        <v>43346.333333333336</v>
+        <v>43347.329861111109</v>
       </c>
       <c r="I81" s="1">
-        <v>43346.392361111109</v>
+        <v>43347.392361111109</v>
       </c>
       <c r="J81" s="1">
-        <v>43346.392361111109</v>
+        <v>43347.38958333333</v>
       </c>
       <c r="K81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
@@ -3315,22 +3569,25 @@
         <v>5</v>
       </c>
       <c r="G82" s="1">
-        <v>43347.333333333336</v>
+        <v>43348.333333333336</v>
       </c>
       <c r="H82" s="1">
-        <v>43347.329861111109</v>
+        <v>43348.333333333336</v>
       </c>
       <c r="I82" s="1">
-        <v>43347.392361111109</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="J82" s="1">
-        <v>43347.38958333333</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="K82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -3350,22 +3607,25 @@
         <v>5</v>
       </c>
       <c r="G83" s="1">
-        <v>43348.333333333336</v>
+        <v>43349.333333333336</v>
       </c>
       <c r="H83" s="1">
-        <v>43348.333333333336</v>
+        <v>43349.331944444442</v>
       </c>
       <c r="I83" s="1">
-        <v>43348.392361111109</v>
+        <v>43349.392361111109</v>
       </c>
       <c r="J83" s="1">
-        <v>43348.392361111109</v>
+        <v>43349.390972222223</v>
       </c>
       <c r="K83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -3385,27 +3645,30 @@
         <v>5</v>
       </c>
       <c r="G84" s="1">
-        <v>43349.333333333336</v>
+        <v>43350.333333333336</v>
       </c>
       <c r="H84" s="1">
-        <v>43349.331944444442</v>
+        <v>43350.331250000003</v>
       </c>
       <c r="I84" s="1">
-        <v>43349.392361111109</v>
+        <v>43350.392361111109</v>
       </c>
       <c r="J84" s="1">
-        <v>43349.390972222223</v>
+        <v>43350.39166666667</v>
       </c>
       <c r="K84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
       <c r="B85">
-        <v>2684</v>
+        <v>2696</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3414,28 +3677,31 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G85" s="1">
-        <v>43350.333333333336</v>
+        <v>43344.416666666664</v>
       </c>
       <c r="H85" s="1">
-        <v>43350.331250000003</v>
+        <v>43344.416666666664</v>
       </c>
       <c r="I85" s="1">
-        <v>43350.392361111109</v>
+        <v>43344.46875</v>
       </c>
       <c r="J85" s="1">
-        <v>43350.39166666667</v>
+        <v>43344.46875</v>
       </c>
       <c r="K85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -3455,22 +3721,25 @@
         <v>2</v>
       </c>
       <c r="G86" s="1">
-        <v>43344.416666666664</v>
+        <v>43345.416666666664</v>
       </c>
       <c r="H86" s="1">
-        <v>43344.416666666664</v>
+        <v>43345.412499999999</v>
       </c>
       <c r="I86" s="1">
-        <v>43344.46875</v>
+        <v>43345.46875</v>
       </c>
       <c r="J86" s="1">
-        <v>43344.46875</v>
+        <v>43345.463194444441</v>
       </c>
       <c r="K86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -3490,22 +3759,25 @@
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <v>43345.416666666664</v>
+        <v>43346.416666666664</v>
       </c>
       <c r="H87" s="1">
-        <v>43345.412499999999</v>
+        <v>43346.422222222223</v>
       </c>
       <c r="I87" s="1">
-        <v>43345.46875</v>
+        <v>43346.46875</v>
       </c>
       <c r="J87" s="1">
-        <v>43345.463194444441</v>
+        <v>43346.48541666667</v>
       </c>
       <c r="K87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3525,22 +3797,25 @@
         <v>2</v>
       </c>
       <c r="G88" s="1">
-        <v>43346.416666666664</v>
+        <v>43347.416666666664</v>
       </c>
       <c r="H88" s="1">
-        <v>43346.422222222223</v>
+        <v>43347.411805555559</v>
       </c>
       <c r="I88" s="1">
-        <v>43346.46875</v>
+        <v>43347.46875</v>
       </c>
       <c r="J88" s="1">
-        <v>43346.48541666667</v>
+        <v>43347.493055555555</v>
       </c>
       <c r="K88" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -3560,22 +3835,25 @@
         <v>2</v>
       </c>
       <c r="G89" s="1">
-        <v>43347.416666666664</v>
+        <v>43348.416666666664</v>
       </c>
       <c r="H89" s="1">
-        <v>43347.411805555559</v>
+        <v>43348.431944444441</v>
       </c>
       <c r="I89" s="1">
-        <v>43347.46875</v>
+        <v>43348.46875</v>
       </c>
       <c r="J89" s="1">
-        <v>43347.493055555555</v>
+        <v>43348.487500000003</v>
       </c>
       <c r="K89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -3595,22 +3873,25 @@
         <v>2</v>
       </c>
       <c r="G90" s="1">
-        <v>43348.416666666664</v>
+        <v>43349.416666666664</v>
       </c>
       <c r="H90" s="1">
-        <v>43348.431944444441</v>
+        <v>43349.410416666666</v>
       </c>
       <c r="I90" s="1">
-        <v>43348.46875</v>
+        <v>43349.46875</v>
       </c>
       <c r="J90" s="1">
-        <v>43348.487500000003</v>
+        <v>43349.456944444442</v>
       </c>
       <c r="K90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -3630,27 +3911,30 @@
         <v>2</v>
       </c>
       <c r="G91" s="1">
-        <v>43349.416666666664</v>
+        <v>43350.416666666664</v>
       </c>
       <c r="H91" s="1">
-        <v>43349.410416666666</v>
+        <v>43350.416666666664</v>
       </c>
       <c r="I91" s="1">
-        <v>43349.46875</v>
+        <v>43350.46875</v>
       </c>
       <c r="J91" s="1">
-        <v>43349.456944444442</v>
+        <v>43350.46875</v>
       </c>
       <c r="K91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>0</v>
       </c>
       <c r="B92">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3659,33 +3943,36 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
         <v>5</v>
       </c>
-      <c r="F92" t="s">
-        <v>2</v>
-      </c>
       <c r="G92" s="1">
-        <v>43350.416666666664</v>
+        <v>43345.375</v>
       </c>
       <c r="H92" s="1">
-        <v>43350.416666666664</v>
+        <v>43345.375</v>
       </c>
       <c r="I92" s="1">
-        <v>43350.46875</v>
+        <v>43345.430555555555</v>
       </c>
       <c r="J92" s="1">
-        <v>43350.46875</v>
+        <v>43345.430555555555</v>
       </c>
       <c r="K92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>0</v>
       </c>
       <c r="B93">
-        <v>2706</v>
+        <v>2772</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3697,33 +3984,36 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G93" s="1">
-        <v>43345.375</v>
+        <v>43345.378472222219</v>
       </c>
       <c r="H93" s="1">
-        <v>43345.375</v>
+        <v>43345.378472222219</v>
       </c>
       <c r="I93" s="1">
-        <v>43345.430555555555</v>
+        <v>43345.427083333336</v>
       </c>
       <c r="J93" s="1">
-        <v>43345.430555555555</v>
+        <v>43345.420138888891</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>0</v>
       </c>
       <c r="B94">
-        <v>2716</v>
+        <v>2781</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D94" t="s">
         <v>1</v>
@@ -3732,30 +4022,33 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G94" s="1">
-        <v>43348.5</v>
+        <v>43344.732638888891</v>
       </c>
       <c r="H94" s="1">
-        <v>43348.5</v>
+        <v>43344.726388888892</v>
       </c>
       <c r="I94" s="1">
-        <v>43348.604166666664</v>
+        <v>43344.78125</v>
       </c>
       <c r="J94" s="1">
-        <v>43348.604166666664</v>
+        <v>43344.772222222222</v>
       </c>
       <c r="K94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>0</v>
       </c>
       <c r="B95">
-        <v>2772</v>
+        <v>2799</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3770,27 +4063,30 @@
         <v>6</v>
       </c>
       <c r="G95" s="1">
-        <v>43345.378472222219</v>
+        <v>43345.53125</v>
       </c>
       <c r="H95" s="1">
-        <v>43345.378472222219</v>
+        <v>43345.524305555555</v>
       </c>
       <c r="I95" s="1">
-        <v>43345.427083333336</v>
+        <v>43345.576388888891</v>
       </c>
       <c r="J95" s="1">
-        <v>43345.420138888891</v>
+        <v>43345.572916666664</v>
       </c>
       <c r="K95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>0</v>
       </c>
       <c r="B96">
-        <v>2781</v>
+        <v>2806</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3799,33 +4095,36 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
-        <v>43344.732638888891</v>
+        <v>43350.833333333336</v>
       </c>
       <c r="H96" s="1">
-        <v>43344.726388888892</v>
+        <v>43350.829861111109</v>
       </c>
       <c r="I96" s="1">
-        <v>43344.78125</v>
+        <v>43350.885416666664</v>
       </c>
       <c r="J96" s="1">
-        <v>43344.772222222222</v>
+        <v>43350.879861111112</v>
       </c>
       <c r="K96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
       <c r="B97">
-        <v>2799</v>
+        <v>2816</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3834,33 +4133,36 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
-        <v>43345.53125</v>
+        <v>43346.506944444445</v>
       </c>
       <c r="H97" s="1">
-        <v>43345.524305555555</v>
+        <v>43346.505555555559</v>
       </c>
       <c r="I97" s="1">
-        <v>43345.576388888891</v>
+        <v>43346.5625</v>
       </c>
       <c r="J97" s="1">
-        <v>43345.572916666664</v>
+        <v>43346.561805555553</v>
       </c>
       <c r="K97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98">
-        <v>2806</v>
+        <v>2816</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3875,22 +4177,25 @@
         <v>2</v>
       </c>
       <c r="G98" s="1">
-        <v>43350.833333333336</v>
+        <v>43347.506944444445</v>
       </c>
       <c r="H98" s="1">
-        <v>43350.829861111109</v>
+        <v>43347.504861111112</v>
       </c>
       <c r="I98" s="1">
-        <v>43350.885416666664</v>
+        <v>43347.5625</v>
       </c>
       <c r="J98" s="1">
-        <v>43350.879861111112</v>
+        <v>43347.556944444441</v>
       </c>
       <c r="K98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -3910,22 +4215,25 @@
         <v>2</v>
       </c>
       <c r="G99" s="1">
-        <v>43346.506944444445</v>
+        <v>43348.506944444445</v>
       </c>
       <c r="H99" s="1">
-        <v>43346.505555555559</v>
+        <v>43348.50277777778</v>
       </c>
       <c r="I99" s="1">
-        <v>43346.5625</v>
+        <v>43348.5625</v>
       </c>
       <c r="J99" s="1">
-        <v>43346.561805555553</v>
+        <v>43348.561805555553</v>
       </c>
       <c r="K99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>0</v>
       </c>
@@ -3945,27 +4253,30 @@
         <v>2</v>
       </c>
       <c r="G100" s="1">
-        <v>43347.506944444445</v>
+        <v>43349.506944444445</v>
       </c>
       <c r="H100" s="1">
-        <v>43347.504861111112</v>
+        <v>43349.506944444445</v>
       </c>
       <c r="I100" s="1">
-        <v>43347.5625</v>
+        <v>43349.5625</v>
       </c>
       <c r="J100" s="1">
-        <v>43347.556944444441</v>
+        <v>43349.5625</v>
       </c>
       <c r="K100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
       <c r="B101">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3974,33 +4285,36 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
         <v>5</v>
       </c>
-      <c r="F101" t="s">
-        <v>2</v>
-      </c>
       <c r="G101" s="1">
-        <v>43348.506944444445</v>
+        <v>43346.618055555555</v>
       </c>
       <c r="H101" s="1">
-        <v>43348.50277777778</v>
+        <v>43346.615277777775</v>
       </c>
       <c r="I101" s="1">
-        <v>43348.5625</v>
+        <v>43346.673611111109</v>
       </c>
       <c r="J101" s="1">
-        <v>43348.561805555553</v>
+        <v>43346.671527777777</v>
       </c>
       <c r="K101" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
       <c r="B102">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4009,28 +4323,31 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
         <v>5</v>
       </c>
-      <c r="F102" t="s">
-        <v>2</v>
-      </c>
       <c r="G102" s="1">
-        <v>43349.506944444445</v>
+        <v>43347.618055555555</v>
       </c>
       <c r="H102" s="1">
-        <v>43349.506944444445</v>
+        <v>43347.615277777775</v>
       </c>
       <c r="I102" s="1">
-        <v>43349.5625</v>
+        <v>43347.673611111109</v>
       </c>
       <c r="J102" s="1">
-        <v>43349.5625</v>
+        <v>43347.664583333331</v>
       </c>
       <c r="K102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -4050,22 +4367,25 @@
         <v>5</v>
       </c>
       <c r="G103" s="1">
-        <v>43346.618055555555</v>
+        <v>43348.618055555555</v>
       </c>
       <c r="H103" s="1">
-        <v>43346.615277777775</v>
+        <v>43348.611805555556</v>
       </c>
       <c r="I103" s="1">
-        <v>43346.673611111109</v>
+        <v>43348.673611111109</v>
       </c>
       <c r="J103" s="1">
-        <v>43346.671527777777</v>
+        <v>43348.664583333331</v>
       </c>
       <c r="K103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -4085,27 +4405,30 @@
         <v>5</v>
       </c>
       <c r="G104" s="1">
-        <v>43347.618055555555</v>
+        <v>43349.618055555555</v>
       </c>
       <c r="H104" s="1">
-        <v>43347.615277777775</v>
+        <v>43349.618055555555</v>
       </c>
       <c r="I104" s="1">
-        <v>43347.673611111109</v>
+        <v>43349.673611111109</v>
       </c>
       <c r="J104" s="1">
-        <v>43347.664583333331</v>
+        <v>43349.673611111109</v>
       </c>
       <c r="K104" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>0</v>
       </c>
       <c r="B105">
-        <v>2817</v>
+        <v>2836</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -4120,27 +4443,30 @@
         <v>5</v>
       </c>
       <c r="G105" s="1">
-        <v>43348.618055555555</v>
+        <v>43344.510416666664</v>
       </c>
       <c r="H105" s="1">
-        <v>43348.611805555556</v>
+        <v>43344.511111111111</v>
       </c>
       <c r="I105" s="1">
-        <v>43348.673611111109</v>
+        <v>43344.565972222219</v>
       </c>
       <c r="J105" s="1">
-        <v>43348.664583333331</v>
+        <v>43344.563888888886</v>
       </c>
       <c r="K105" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>0</v>
       </c>
       <c r="B106">
-        <v>2817</v>
+        <v>2849</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -4155,27 +4481,30 @@
         <v>5</v>
       </c>
       <c r="G106" s="1">
-        <v>43349.618055555555</v>
+        <v>43346.288194444445</v>
       </c>
       <c r="H106" s="1">
-        <v>43349.618055555555</v>
+        <v>43346.285416666666</v>
       </c>
       <c r="I106" s="1">
-        <v>43349.673611111109</v>
+        <v>43346.34375</v>
       </c>
       <c r="J106" s="1">
-        <v>43349.673611111109</v>
+        <v>43346.337500000001</v>
       </c>
       <c r="K106" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>0</v>
       </c>
       <c r="B107">
-        <v>2836</v>
+        <v>2849</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -4190,22 +4519,25 @@
         <v>5</v>
       </c>
       <c r="G107" s="1">
-        <v>43344.510416666664</v>
+        <v>43347.288194444445</v>
       </c>
       <c r="H107" s="1">
-        <v>43344.511111111111</v>
+        <v>43347.281944444447</v>
       </c>
       <c r="I107" s="1">
-        <v>43344.565972222219</v>
+        <v>43347.34375</v>
       </c>
       <c r="J107" s="1">
-        <v>43344.563888888886</v>
+        <v>43347.336111111108</v>
       </c>
       <c r="K107" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -4225,22 +4557,25 @@
         <v>5</v>
       </c>
       <c r="G108" s="1">
-        <v>43346.288194444445</v>
+        <v>43348.288194444445</v>
       </c>
       <c r="H108" s="1">
-        <v>43346.285416666666</v>
+        <v>43348.280555555553</v>
       </c>
       <c r="I108" s="1">
-        <v>43346.34375</v>
+        <v>43348.34375</v>
       </c>
       <c r="J108" s="1">
-        <v>43346.337500000001</v>
+        <v>43348.336111111108</v>
       </c>
       <c r="K108" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -4260,22 +4595,25 @@
         <v>5</v>
       </c>
       <c r="G109" s="1">
-        <v>43347.288194444445</v>
+        <v>43349.288194444445</v>
       </c>
       <c r="H109" s="1">
-        <v>43347.281944444447</v>
+        <v>43349.283333333333</v>
       </c>
       <c r="I109" s="1">
-        <v>43347.34375</v>
+        <v>43349.34375</v>
       </c>
       <c r="J109" s="1">
-        <v>43347.336111111108</v>
+        <v>43349.338888888888</v>
       </c>
       <c r="K109" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>0</v>
       </c>
@@ -4295,27 +4633,30 @@
         <v>5</v>
       </c>
       <c r="G110" s="1">
-        <v>43348.288194444445</v>
+        <v>43350.288194444445</v>
       </c>
       <c r="H110" s="1">
-        <v>43348.280555555553</v>
+        <v>43350.288194444445</v>
       </c>
       <c r="I110" s="1">
-        <v>43348.34375</v>
+        <v>43350.34375</v>
       </c>
       <c r="J110" s="1">
-        <v>43348.336111111108</v>
+        <v>43350.34375</v>
       </c>
       <c r="K110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
       <c r="B111">
-        <v>2849</v>
+        <v>2878</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4330,27 +4671,30 @@
         <v>5</v>
       </c>
       <c r="G111" s="1">
-        <v>43349.288194444445</v>
+        <v>43345.298611111109</v>
       </c>
       <c r="H111" s="1">
-        <v>43349.283333333333</v>
+        <v>43345.290277777778</v>
       </c>
       <c r="I111" s="1">
-        <v>43349.34375</v>
+        <v>43345.350694444445</v>
       </c>
       <c r="J111" s="1">
-        <v>43349.338888888888</v>
+        <v>43345.344444444447</v>
       </c>
       <c r="K111" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>0</v>
       </c>
       <c r="B112">
-        <v>2849</v>
+        <v>2938</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4359,63 +4703,69 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>43346.256944444445</v>
+      </c>
+      <c r="H112" s="1">
+        <v>43346.254166666666</v>
+      </c>
+      <c r="I112" s="1">
+        <v>43346.309027777781</v>
+      </c>
+      <c r="J112" s="1">
+        <v>43346.303472222222</v>
+      </c>
+      <c r="K112" t="s">
+        <v>4</v>
+      </c>
+      <c r="L112" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>2938</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="1">
-        <v>43350.288194444445</v>
-      </c>
-      <c r="H112" s="1">
-        <v>43350.288194444445</v>
-      </c>
-      <c r="I112" s="1">
-        <v>43350.34375</v>
-      </c>
-      <c r="J112" s="1">
-        <v>43350.34375</v>
-      </c>
-      <c r="K112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>2878</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
-        <v>2</v>
-      </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G113" s="1">
-        <v>43345.298611111109</v>
+        <v>43347.256944444445</v>
       </c>
       <c r="H113" s="1">
-        <v>43345.290277777778</v>
+        <v>43347.248611111114</v>
       </c>
       <c r="I113" s="1">
-        <v>43345.350694444445</v>
+        <v>43347.309027777781</v>
       </c>
       <c r="J113" s="1">
-        <v>43345.344444444447</v>
+        <v>43347.307638888888</v>
       </c>
       <c r="K113" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>0</v>
       </c>
@@ -4435,22 +4785,25 @@
         <v>2</v>
       </c>
       <c r="G114" s="1">
-        <v>43346.256944444445</v>
+        <v>43348.256944444445</v>
       </c>
       <c r="H114" s="1">
-        <v>43346.254166666666</v>
+        <v>43348.25</v>
       </c>
       <c r="I114" s="1">
-        <v>43346.309027777781</v>
+        <v>43348.309027777781</v>
       </c>
       <c r="J114" s="1">
-        <v>43346.303472222222</v>
+        <v>43348.292361111111</v>
       </c>
       <c r="K114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>0</v>
       </c>
@@ -4470,22 +4823,25 @@
         <v>2</v>
       </c>
       <c r="G115" s="1">
-        <v>43347.256944444445</v>
+        <v>43349.256944444445</v>
       </c>
       <c r="H115" s="1">
-        <v>43347.248611111114</v>
+        <v>43349.252083333333</v>
       </c>
       <c r="I115" s="1">
-        <v>43347.309027777781</v>
+        <v>43349.309027777781</v>
       </c>
       <c r="J115" s="1">
-        <v>43347.307638888888</v>
+        <v>43349.300694444442</v>
       </c>
       <c r="K115" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -4505,27 +4861,30 @@
         <v>2</v>
       </c>
       <c r="G116" s="1">
-        <v>43348.256944444445</v>
+        <v>43350.256944444445</v>
       </c>
       <c r="H116" s="1">
-        <v>43348.25</v>
+        <v>43350.25277777778</v>
       </c>
       <c r="I116" s="1">
-        <v>43348.309027777781</v>
+        <v>43350.309027777781</v>
       </c>
       <c r="J116" s="1">
-        <v>43348.292361111111</v>
+        <v>43350.300694444442</v>
       </c>
       <c r="K116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>0</v>
       </c>
       <c r="B117">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -4540,27 +4899,30 @@
         <v>2</v>
       </c>
       <c r="G117" s="1">
-        <v>43349.256944444445</v>
+        <v>43345.850694444445</v>
       </c>
       <c r="H117" s="1">
-        <v>43349.252083333333</v>
+        <v>43345.850694444445</v>
       </c>
       <c r="I117" s="1">
-        <v>43349.309027777781</v>
+        <v>43345.90625</v>
       </c>
       <c r="J117" s="1">
-        <v>43349.300694444442</v>
+        <v>43345.90625</v>
       </c>
       <c r="K117" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
       <c r="B118">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4575,22 +4937,25 @@
         <v>2</v>
       </c>
       <c r="G118" s="1">
-        <v>43350.256944444445</v>
+        <v>43346.850694444445</v>
       </c>
       <c r="H118" s="1">
-        <v>43350.25277777778</v>
+        <v>43346.845833333333</v>
       </c>
       <c r="I118" s="1">
-        <v>43350.309027777781</v>
+        <v>43346.90625</v>
       </c>
       <c r="J118" s="1">
-        <v>43350.300694444442</v>
+        <v>43346.90347222222</v>
       </c>
       <c r="K118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>0</v>
       </c>
@@ -4610,22 +4975,25 @@
         <v>2</v>
       </c>
       <c r="G119" s="1">
-        <v>43345.850694444445</v>
+        <v>43347.850694444445</v>
       </c>
       <c r="H119" s="1">
-        <v>43345.850694444445</v>
+        <v>43347.855555555558</v>
       </c>
       <c r="I119" s="1">
-        <v>43345.90625</v>
+        <v>43347.90625</v>
       </c>
       <c r="J119" s="1">
-        <v>43345.90625</v>
+        <v>43347.904166666667</v>
       </c>
       <c r="K119" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -4645,22 +5013,25 @@
         <v>2</v>
       </c>
       <c r="G120" s="1">
-        <v>43346.850694444445</v>
+        <v>43348.850694444445</v>
       </c>
       <c r="H120" s="1">
-        <v>43346.845833333333</v>
+        <v>43348.845833333333</v>
       </c>
       <c r="I120" s="1">
-        <v>43346.90625</v>
+        <v>43348.90625</v>
       </c>
       <c r="J120" s="1">
-        <v>43346.90347222222</v>
+        <v>43348.895833333336</v>
       </c>
       <c r="K120" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4680,27 +5051,30 @@
         <v>2</v>
       </c>
       <c r="G121" s="1">
-        <v>43347.850694444445</v>
+        <v>43349.850694444445</v>
       </c>
       <c r="H121" s="1">
-        <v>43347.855555555558</v>
+        <v>43349.849305555559</v>
       </c>
       <c r="I121" s="1">
-        <v>43347.90625</v>
+        <v>43349.90625</v>
       </c>
       <c r="J121" s="1">
-        <v>43347.904166666667</v>
+        <v>43349.896527777775</v>
       </c>
       <c r="K121" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>0</v>
       </c>
       <c r="B122">
-        <v>2940</v>
+        <v>2966</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4715,27 +5089,30 @@
         <v>2</v>
       </c>
       <c r="G122" s="1">
-        <v>43348.850694444445</v>
+        <v>43344.802083333336</v>
       </c>
       <c r="H122" s="1">
-        <v>43348.845833333333</v>
+        <v>43344.802083333336</v>
       </c>
       <c r="I122" s="1">
-        <v>43348.90625</v>
+        <v>43344.854166666664</v>
       </c>
       <c r="J122" s="1">
-        <v>43348.895833333336</v>
+        <v>43344.852777777778</v>
       </c>
       <c r="K122" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>0</v>
       </c>
       <c r="B123">
-        <v>2940</v>
+        <v>4009</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -4744,33 +5121,36 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G123" s="1">
-        <v>43349.850694444445</v>
+        <v>43345.833333333336</v>
       </c>
       <c r="H123" s="1">
-        <v>43349.849305555559</v>
+        <v>43345.829861111109</v>
       </c>
       <c r="I123" s="1">
-        <v>43349.90625</v>
+        <v>43345.885416666664</v>
       </c>
       <c r="J123" s="1">
-        <v>43349.896527777775</v>
+        <v>43345.882638888892</v>
       </c>
       <c r="K123" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>0</v>
       </c>
       <c r="B124">
-        <v>2966</v>
+        <v>4040</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4779,33 +5159,36 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G124" s="1">
-        <v>43344.802083333336</v>
+        <v>43346.322916666664</v>
       </c>
       <c r="H124" s="1">
-        <v>43344.802083333336</v>
+        <v>43346.320833333331</v>
       </c>
       <c r="I124" s="1">
-        <v>43344.854166666664</v>
+        <v>43346.381944444445</v>
       </c>
       <c r="J124" s="1">
-        <v>43344.852777777778</v>
+        <v>43346.379861111112</v>
       </c>
       <c r="K124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>0</v>
       </c>
       <c r="B125">
-        <v>4003</v>
+        <v>4040</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -4817,30 +5200,33 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G125" s="1">
-        <v>43345.5</v>
+        <v>43347.322916666664</v>
       </c>
       <c r="H125" s="1">
-        <v>43345.524305555555</v>
+        <v>43347.318055555559</v>
       </c>
       <c r="I125" s="1">
-        <v>43345.572916666664</v>
+        <v>43347.381944444445</v>
       </c>
       <c r="J125" s="1">
-        <v>43345.591666666667</v>
+        <v>43347.37777777778</v>
       </c>
       <c r="K125" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>0</v>
       </c>
       <c r="B126">
-        <v>4009</v>
+        <v>4040</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4852,25 +5238,28 @@
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G126" s="1">
-        <v>43345.833333333336</v>
+        <v>43348.322916666664</v>
       </c>
       <c r="H126" s="1">
-        <v>43345.829861111109</v>
+        <v>43348.323611111111</v>
       </c>
       <c r="I126" s="1">
-        <v>43345.885416666664</v>
+        <v>43348.381944444445</v>
       </c>
       <c r="J126" s="1">
-        <v>43345.882638888892</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="K126" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>0</v>
       </c>
@@ -4890,22 +5279,25 @@
         <v>3</v>
       </c>
       <c r="G127" s="1">
-        <v>43346.322916666664</v>
+        <v>43349.322916666664</v>
       </c>
       <c r="H127" s="1">
-        <v>43346.320833333331</v>
+        <v>43349.374305555553</v>
       </c>
       <c r="I127" s="1">
-        <v>43346.381944444445</v>
+        <v>43349.381944444445</v>
       </c>
       <c r="J127" s="1">
-        <v>43346.379861111112</v>
+        <v>43349.433333333334</v>
       </c>
       <c r="K127" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>0</v>
       </c>
@@ -4925,27 +5317,30 @@
         <v>3</v>
       </c>
       <c r="G128" s="1">
-        <v>43347.322916666664</v>
+        <v>43350.322916666664</v>
       </c>
       <c r="H128" s="1">
-        <v>43347.318055555559</v>
+        <v>43350.315972222219</v>
       </c>
       <c r="I128" s="1">
-        <v>43347.381944444445</v>
+        <v>43350.381944444445</v>
       </c>
       <c r="J128" s="1">
-        <v>43347.37777777778</v>
+        <v>43350.368750000001</v>
       </c>
       <c r="K128" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129">
-        <v>4040</v>
+        <v>4045</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4954,33 +5349,36 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1">
-        <v>43348.322916666664</v>
+        <v>43345.295138888891</v>
       </c>
       <c r="H129" s="1">
-        <v>43348.323611111111</v>
+        <v>43345.288888888892</v>
       </c>
       <c r="I129" s="1">
-        <v>43348.381944444445</v>
+        <v>43345.34375</v>
       </c>
       <c r="J129" s="1">
-        <v>43348.392361111109</v>
+        <v>43345.330555555556</v>
       </c>
       <c r="K129" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>0</v>
       </c>
       <c r="B130">
-        <v>4040</v>
+        <v>4171</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -4992,30 +5390,33 @@
         <v>2</v>
       </c>
       <c r="F130" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G130" s="1">
-        <v>43349.322916666664</v>
+        <v>43344.267361111109</v>
       </c>
       <c r="H130" s="1">
-        <v>43349.374305555553</v>
+        <v>43344.263194444444</v>
       </c>
       <c r="I130" s="1">
-        <v>43349.381944444445</v>
+        <v>43344.3125</v>
       </c>
       <c r="J130" s="1">
-        <v>43349.433333333334</v>
+        <v>43344.311805555553</v>
       </c>
       <c r="K130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
       <c r="B131">
-        <v>4040</v>
+        <v>4171</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -5027,33 +5428,36 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G131" s="1">
-        <v>43350.322916666664</v>
+        <v>43346.263888888891</v>
       </c>
       <c r="H131" s="1">
-        <v>43350.315972222219</v>
+        <v>43346.260416666664</v>
       </c>
       <c r="I131" s="1">
-        <v>43350.381944444445</v>
+        <v>43346.309027777781</v>
       </c>
       <c r="J131" s="1">
-        <v>43350.368750000001</v>
+        <v>43346.305555555555</v>
       </c>
       <c r="K131" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>0</v>
       </c>
       <c r="B132">
-        <v>4040</v>
+        <v>4171</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -5062,30 +5466,33 @@
         <v>2</v>
       </c>
       <c r="F132" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G132" s="1">
-        <v>43349.323611111111</v>
+        <v>43347.263888888891</v>
       </c>
       <c r="H132" s="1">
-        <v>43349.323611111111</v>
+        <v>43347.263888888891</v>
       </c>
       <c r="I132" s="1">
-        <v>43349.338194444441</v>
+        <v>43347.309027777781</v>
       </c>
       <c r="J132" s="1">
-        <v>43349.338194444441</v>
+        <v>43347.306250000001</v>
       </c>
       <c r="K132" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
       <c r="B133">
-        <v>4045</v>
+        <v>4171</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5094,36 +5501,39 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
         <v>6</v>
       </c>
-      <c r="F133" t="s">
-        <v>2</v>
-      </c>
       <c r="G133" s="1">
-        <v>43345.295138888891</v>
+        <v>43348.267361111109</v>
       </c>
       <c r="H133" s="1">
-        <v>43345.288888888892</v>
+        <v>43348.267361111109</v>
       </c>
       <c r="I133" s="1">
-        <v>43345.34375</v>
+        <v>43348.3125</v>
       </c>
       <c r="J133" s="1">
-        <v>43345.330555555556</v>
+        <v>43348.3125</v>
       </c>
       <c r="K133" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>0</v>
       </c>
       <c r="B134">
-        <v>4153</v>
+        <v>4171</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -5132,25 +5542,28 @@
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G134" s="1">
-        <v>43347.84375</v>
+        <v>43349.263888888891</v>
       </c>
       <c r="H134" s="1">
-        <v>43347.84375</v>
+        <v>43349.259027777778</v>
       </c>
       <c r="I134" s="1">
-        <v>43347.850694444445</v>
+        <v>43349.309027777781</v>
       </c>
       <c r="J134" s="1">
-        <v>43347.850694444445</v>
+        <v>43349.307638888888</v>
       </c>
       <c r="K134" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>0</v>
       </c>
@@ -5170,27 +5583,30 @@
         <v>6</v>
       </c>
       <c r="G135" s="1">
-        <v>43344.267361111109</v>
+        <v>43350.267361111109</v>
       </c>
       <c r="H135" s="1">
-        <v>43344.263194444444</v>
+        <v>43350.267361111109</v>
       </c>
       <c r="I135" s="1">
-        <v>43344.3125</v>
+        <v>43350.3125</v>
       </c>
       <c r="J135" s="1">
-        <v>43344.311805555553</v>
+        <v>43350.3125</v>
       </c>
       <c r="K135" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>0</v>
       </c>
       <c r="B136">
-        <v>4171</v>
+        <v>4174</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5199,418 +5615,454 @@
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F136" t="s">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>43345.90625</v>
+      </c>
+      <c r="H136" s="1">
+        <v>43345.90625</v>
+      </c>
+      <c r="I136" s="1">
+        <v>43345.951388888891</v>
+      </c>
+      <c r="J136" s="1">
+        <v>43345.951388888891</v>
+      </c>
+      <c r="K136" t="s">
+        <v>4</v>
+      </c>
+      <c r="L136" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>4174</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
         <v>6</v>
       </c>
-      <c r="G136" s="1">
-        <v>43346.263888888891</v>
-      </c>
-      <c r="H136" s="1">
-        <v>43346.260416666664</v>
-      </c>
-      <c r="I136" s="1">
-        <v>43346.309027777781</v>
-      </c>
-      <c r="J136" s="1">
-        <v>43346.305555555555</v>
-      </c>
-      <c r="K136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>4171</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137" t="s">
-        <v>2</v>
-      </c>
       <c r="F137" t="s">
+        <v>2</v>
+      </c>
+      <c r="G137" s="1">
+        <v>43346.90625</v>
+      </c>
+      <c r="H137" s="1">
+        <v>43346.90625</v>
+      </c>
+      <c r="I137" s="1">
+        <v>43346.951388888891</v>
+      </c>
+      <c r="J137" s="1">
+        <v>43346.951388888891</v>
+      </c>
+      <c r="K137" t="s">
+        <v>4</v>
+      </c>
+      <c r="L137" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>4174</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="1">
-        <v>43347.263888888891</v>
-      </c>
-      <c r="H137" s="1">
-        <v>43347.263888888891</v>
-      </c>
-      <c r="I137" s="1">
-        <v>43347.309027777781</v>
-      </c>
-      <c r="J137" s="1">
-        <v>43347.306250000001</v>
-      </c>
-      <c r="K137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>4171</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1</v>
-      </c>
-      <c r="E138" t="s">
-        <v>2</v>
-      </c>
       <c r="F138" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="1">
+        <v>43347.90625</v>
+      </c>
+      <c r="H138" s="1">
+        <v>43347.90625</v>
+      </c>
+      <c r="I138" s="1">
+        <v>43347.951388888891</v>
+      </c>
+      <c r="J138" s="1">
+        <v>43347.951388888891</v>
+      </c>
+      <c r="K138" t="s">
+        <v>4</v>
+      </c>
+      <c r="L138" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>4174</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
         <v>6</v>
       </c>
-      <c r="G138" s="1">
-        <v>43348.267361111109</v>
-      </c>
-      <c r="H138" s="1">
-        <v>43348.267361111109</v>
-      </c>
-      <c r="I138" s="1">
-        <v>43348.3125</v>
-      </c>
-      <c r="J138" s="1">
-        <v>43348.3125</v>
-      </c>
-      <c r="K138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>4171</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1</v>
-      </c>
-      <c r="E139" t="s">
-        <v>2</v>
-      </c>
       <c r="F139" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139" s="1">
+        <v>43348.90625</v>
+      </c>
+      <c r="H139" s="1">
+        <v>43348.899305555555</v>
+      </c>
+      <c r="I139" s="1">
+        <v>43348.951388888891</v>
+      </c>
+      <c r="J139" s="1">
+        <v>43348.945833333331</v>
+      </c>
+      <c r="K139" t="s">
+        <v>4</v>
+      </c>
+      <c r="L139" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>4174</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
         <v>6</v>
       </c>
-      <c r="G139" s="1">
-        <v>43349.263888888891</v>
-      </c>
-      <c r="H139" s="1">
-        <v>43349.259027777778</v>
-      </c>
-      <c r="I139" s="1">
-        <v>43349.309027777781</v>
-      </c>
-      <c r="J139" s="1">
-        <v>43349.307638888888</v>
-      </c>
-      <c r="K139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140">
-        <v>4171</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1</v>
-      </c>
-      <c r="E140" t="s">
-        <v>2</v>
-      </c>
       <c r="F140" t="s">
+        <v>2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>43349.90625</v>
+      </c>
+      <c r="H140" s="1">
+        <v>43349.90902777778</v>
+      </c>
+      <c r="I140" s="1">
+        <v>43349.951388888891</v>
+      </c>
+      <c r="J140" s="1">
+        <v>43349.950694444444</v>
+      </c>
+      <c r="K140" t="s">
+        <v>4</v>
+      </c>
+      <c r="L140" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>4232</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" s="1">
+        <v>43345.274305555555</v>
+      </c>
+      <c r="H141" s="1">
+        <v>43345.263888888891</v>
+      </c>
+      <c r="I141" s="1">
+        <v>43345.329861111109</v>
+      </c>
+      <c r="J141" s="1">
+        <v>43345.31527777778</v>
+      </c>
+      <c r="K141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L141" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>4264</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
         <v>6</v>
       </c>
-      <c r="G140" s="1">
-        <v>43350.267361111109</v>
-      </c>
-      <c r="H140" s="1">
-        <v>43350.267361111109</v>
-      </c>
-      <c r="I140" s="1">
-        <v>43350.3125</v>
-      </c>
-      <c r="J140" s="1">
-        <v>43350.3125</v>
-      </c>
-      <c r="K140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>4174</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="G142" s="1">
+        <v>43345.451388888891</v>
+      </c>
+      <c r="H142" s="1">
+        <v>43345.450694444444</v>
+      </c>
+      <c r="I142" s="1">
+        <v>43345.5</v>
+      </c>
+      <c r="J142" s="1">
+        <v>43345.491666666669</v>
+      </c>
+      <c r="K142" t="s">
+        <v>4</v>
+      </c>
+      <c r="L142" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>4272</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
         <v>6</v>
       </c>
-      <c r="F141" t="s">
-        <v>2</v>
-      </c>
-      <c r="G141" s="1">
-        <v>43345.90625</v>
-      </c>
-      <c r="H141" s="1">
-        <v>43345.90625</v>
-      </c>
-      <c r="I141" s="1">
-        <v>43345.951388888891</v>
-      </c>
-      <c r="J141" s="1">
-        <v>43345.951388888891</v>
-      </c>
-      <c r="K141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>4174</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="G143" s="1">
+        <v>43344.885416666664</v>
+      </c>
+      <c r="H143" s="1">
+        <v>43344.885416666664</v>
+      </c>
+      <c r="I143" s="1">
+        <v>43344.923611111109</v>
+      </c>
+      <c r="J143" s="1">
+        <v>43344.923611111109</v>
+      </c>
+      <c r="K143" t="s">
+        <v>4</v>
+      </c>
+      <c r="L143" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>4272</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
         <v>6</v>
       </c>
-      <c r="F142" t="s">
-        <v>2</v>
-      </c>
-      <c r="G142" s="1">
-        <v>43346.90625</v>
-      </c>
-      <c r="H142" s="1">
-        <v>43346.90625</v>
-      </c>
-      <c r="I142" s="1">
-        <v>43346.951388888891</v>
-      </c>
-      <c r="J142" s="1">
-        <v>43346.951388888891</v>
-      </c>
-      <c r="K142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>4174</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="G144" s="1">
+        <v>43345.885416666664</v>
+      </c>
+      <c r="H144" s="1">
+        <v>43345.888888888891</v>
+      </c>
+      <c r="I144" s="1">
+        <v>43345.923611111109</v>
+      </c>
+      <c r="J144" s="1">
+        <v>43345.94027777778</v>
+      </c>
+      <c r="K144" t="s">
+        <v>4</v>
+      </c>
+      <c r="L144" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>4272</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
         <v>6</v>
       </c>
-      <c r="F143" t="s">
-        <v>2</v>
-      </c>
-      <c r="G143" s="1">
-        <v>43347.90625</v>
-      </c>
-      <c r="H143" s="1">
-        <v>43347.90625</v>
-      </c>
-      <c r="I143" s="1">
-        <v>43347.951388888891</v>
-      </c>
-      <c r="J143" s="1">
-        <v>43347.951388888891</v>
-      </c>
-      <c r="K143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>4174</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="G145" s="1">
+        <v>43346.885416666664</v>
+      </c>
+      <c r="H145" s="1">
+        <v>43346.878472222219</v>
+      </c>
+      <c r="I145" s="1">
+        <v>43346.923611111109</v>
+      </c>
+      <c r="J145" s="1">
+        <v>43346.921527777777</v>
+      </c>
+      <c r="K145" t="s">
+        <v>4</v>
+      </c>
+      <c r="L145" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>4272</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
         <v>6</v>
       </c>
-      <c r="F144" t="s">
-        <v>2</v>
-      </c>
-      <c r="G144" s="1">
-        <v>43348.90625</v>
-      </c>
-      <c r="H144" s="1">
-        <v>43348.899305555555</v>
-      </c>
-      <c r="I144" s="1">
-        <v>43348.951388888891</v>
-      </c>
-      <c r="J144" s="1">
-        <v>43348.945833333331</v>
-      </c>
-      <c r="K144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>4174</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1</v>
-      </c>
-      <c r="E145" t="s">
-        <v>6</v>
-      </c>
-      <c r="F145" t="s">
-        <v>2</v>
-      </c>
-      <c r="G145" s="1">
-        <v>43349.90625</v>
-      </c>
-      <c r="H145" s="1">
-        <v>43349.90902777778</v>
-      </c>
-      <c r="I145" s="1">
-        <v>43349.951388888891</v>
-      </c>
-      <c r="J145" s="1">
-        <v>43349.950694444444</v>
-      </c>
-      <c r="K145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146">
-        <v>4182</v>
-      </c>
-      <c r="C146">
-        <v>3</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1</v>
-      </c>
-      <c r="E146" t="s">
-        <v>2</v>
-      </c>
-      <c r="F146" t="s">
-        <v>2</v>
-      </c>
       <c r="G146" s="1">
-        <v>43344.501388888886</v>
+        <v>43347.885416666664</v>
       </c>
       <c r="H146" s="1">
-        <v>43344.501388888886</v>
+        <v>43347.885416666664</v>
       </c>
       <c r="I146" s="1">
-        <v>43344.574999999997</v>
+        <v>43347.923611111109</v>
       </c>
       <c r="J146" s="1">
-        <v>43344.574999999997</v>
+        <v>43347.923611111109</v>
       </c>
       <c r="K146" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
       <c r="B147">
-        <v>4219</v>
+        <v>4272</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
       </c>
       <c r="G147" s="1">
-        <v>43348.936111111114</v>
+        <v>43348.885416666664</v>
       </c>
       <c r="H147" s="1">
-        <v>43348.936111111114</v>
+        <v>43348.885416666664</v>
       </c>
       <c r="I147" s="1">
-        <v>43348.942361111112</v>
+        <v>43348.923611111109</v>
       </c>
       <c r="J147" s="1">
-        <v>43348.942361111112</v>
+        <v>43348.923611111109</v>
       </c>
       <c r="K147" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>0</v>
       </c>
       <c r="B148">
-        <v>4232</v>
+        <v>4272</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5619,313 +6071,340 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="1">
+        <v>43349.885416666664</v>
+      </c>
+      <c r="H148" s="1">
+        <v>43349.888888888891</v>
+      </c>
+      <c r="I148" s="1">
+        <v>43349.923611111109</v>
+      </c>
+      <c r="J148" s="1">
+        <v>43349.938888888886</v>
+      </c>
+      <c r="K148" t="s">
+        <v>4</v>
+      </c>
+      <c r="L148" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>4280</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="1">
+        <v>43350.795138888891</v>
+      </c>
+      <c r="H149" s="1">
+        <v>43350.794444444444</v>
+      </c>
+      <c r="I149" s="1">
+        <v>43350.850694444445</v>
+      </c>
+      <c r="J149" s="1">
+        <v>43350.84375</v>
+      </c>
+      <c r="K149" t="s">
+        <v>4</v>
+      </c>
+      <c r="L149" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>4421</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
         <v>3</v>
       </c>
-      <c r="F148" t="s">
-        <v>2</v>
-      </c>
-      <c r="G148" s="1">
-        <v>43345.274305555555</v>
-      </c>
-      <c r="H148" s="1">
-        <v>43345.263888888891</v>
-      </c>
-      <c r="I148" s="1">
-        <v>43345.329861111109</v>
-      </c>
-      <c r="J148" s="1">
-        <v>43345.31527777778</v>
-      </c>
-      <c r="K148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149">
-        <v>4264</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1</v>
-      </c>
-      <c r="E149" t="s">
-        <v>2</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="F150" t="s">
+        <v>2</v>
+      </c>
+      <c r="G150" s="1">
+        <v>43345.8125</v>
+      </c>
+      <c r="H150" s="1">
+        <v>43345.823611111111</v>
+      </c>
+      <c r="I150" s="1">
+        <v>43345.871527777781</v>
+      </c>
+      <c r="J150" s="1">
+        <v>43345.869444444441</v>
+      </c>
+      <c r="K150" t="s">
+        <v>4</v>
+      </c>
+      <c r="L150" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>4421</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1">
+        <v>43346.8125</v>
+      </c>
+      <c r="H151" s="1">
+        <v>43346.809027777781</v>
+      </c>
+      <c r="I151" s="1">
+        <v>43346.871527777781</v>
+      </c>
+      <c r="J151" s="1">
+        <v>43346.863888888889</v>
+      </c>
+      <c r="K151" t="s">
+        <v>4</v>
+      </c>
+      <c r="L151" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>4421</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>3</v>
+      </c>
+      <c r="F152" t="s">
+        <v>2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>43347.8125</v>
+      </c>
+      <c r="H152" s="1">
+        <v>43347.81527777778</v>
+      </c>
+      <c r="I152" s="1">
+        <v>43347.871527777781</v>
+      </c>
+      <c r="J152" s="1">
+        <v>43347.868055555555</v>
+      </c>
+      <c r="K152" t="s">
+        <v>4</v>
+      </c>
+      <c r="L152" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>4421</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>3</v>
+      </c>
+      <c r="F153" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>43348.8125</v>
+      </c>
+      <c r="H153" s="1">
+        <v>43348.816666666666</v>
+      </c>
+      <c r="I153" s="1">
+        <v>43348.871527777781</v>
+      </c>
+      <c r="J153" s="1">
+        <v>43348.867361111108</v>
+      </c>
+      <c r="K153" t="s">
+        <v>4</v>
+      </c>
+      <c r="L153" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>4421</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="1">
+        <v>43349.8125</v>
+      </c>
+      <c r="H154" s="1">
+        <v>43349.81527777778</v>
+      </c>
+      <c r="I154" s="1">
+        <v>43349.871527777781</v>
+      </c>
+      <c r="J154" s="1">
+        <v>43349.864583333336</v>
+      </c>
+      <c r="K154" t="s">
+        <v>4</v>
+      </c>
+      <c r="L154" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>4421</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" t="s">
+        <v>2</v>
+      </c>
+      <c r="G155" s="1">
+        <v>43350.8125</v>
+      </c>
+      <c r="H155" s="1">
+        <v>43350.804166666669</v>
+      </c>
+      <c r="I155" s="1">
+        <v>43350.871527777781</v>
+      </c>
+      <c r="J155" s="1">
+        <v>43350.862500000003</v>
+      </c>
+      <c r="K155" t="s">
+        <v>4</v>
+      </c>
+      <c r="L155" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>4949</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
         <v>6</v>
       </c>
-      <c r="G149" s="1">
-        <v>43345.451388888891</v>
-      </c>
-      <c r="H149" s="1">
-        <v>43345.450694444444</v>
-      </c>
-      <c r="I149" s="1">
-        <v>43345.5</v>
-      </c>
-      <c r="J149" s="1">
-        <v>43345.491666666669</v>
-      </c>
-      <c r="K149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>4272</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1</v>
-      </c>
-      <c r="E150" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="1">
-        <v>43344.885416666664</v>
-      </c>
-      <c r="H150" s="1">
-        <v>43344.885416666664</v>
-      </c>
-      <c r="I150" s="1">
-        <v>43344.923611111109</v>
-      </c>
-      <c r="J150" s="1">
-        <v>43344.923611111109</v>
-      </c>
-      <c r="K150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <v>4272</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1</v>
-      </c>
-      <c r="E151" t="s">
-        <v>2</v>
-      </c>
-      <c r="F151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="1">
-        <v>43345.885416666664</v>
-      </c>
-      <c r="H151" s="1">
-        <v>43345.888888888891</v>
-      </c>
-      <c r="I151" s="1">
-        <v>43345.923611111109</v>
-      </c>
-      <c r="J151" s="1">
-        <v>43345.94027777778</v>
-      </c>
-      <c r="K151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152">
-        <v>4272</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1</v>
-      </c>
-      <c r="E152" t="s">
-        <v>2</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="1">
-        <v>43346.885416666664</v>
-      </c>
-      <c r="H152" s="1">
-        <v>43346.878472222219</v>
-      </c>
-      <c r="I152" s="1">
-        <v>43346.923611111109</v>
-      </c>
-      <c r="J152" s="1">
-        <v>43346.921527777777</v>
-      </c>
-      <c r="K152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>4272</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1</v>
-      </c>
-      <c r="E153" t="s">
-        <v>2</v>
-      </c>
-      <c r="F153" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="1">
-        <v>43347.885416666664</v>
-      </c>
-      <c r="H153" s="1">
-        <v>43347.885416666664</v>
-      </c>
-      <c r="I153" s="1">
-        <v>43347.923611111109</v>
-      </c>
-      <c r="J153" s="1">
-        <v>43347.923611111109</v>
-      </c>
-      <c r="K153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154">
-        <v>4272</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1</v>
-      </c>
-      <c r="E154" t="s">
-        <v>2</v>
-      </c>
-      <c r="F154" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="1">
-        <v>43348.885416666664</v>
-      </c>
-      <c r="H154" s="1">
-        <v>43348.885416666664</v>
-      </c>
-      <c r="I154" s="1">
-        <v>43348.923611111109</v>
-      </c>
-      <c r="J154" s="1">
-        <v>43348.923611111109</v>
-      </c>
-      <c r="K154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155">
-        <v>4272</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1</v>
-      </c>
-      <c r="E155" t="s">
-        <v>2</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" s="1">
-        <v>43349.885416666664</v>
-      </c>
-      <c r="H155" s="1">
-        <v>43349.888888888891</v>
-      </c>
-      <c r="I155" s="1">
-        <v>43349.923611111109</v>
-      </c>
-      <c r="J155" s="1">
-        <v>43349.938888888886</v>
-      </c>
-      <c r="K155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <v>4280</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156" t="s">
-        <v>2</v>
-      </c>
       <c r="F156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G156" s="1">
-        <v>43350.795138888891</v>
+        <v>43344.805555555555</v>
       </c>
       <c r="H156" s="1">
-        <v>43350.794444444444</v>
+        <v>43344.804861111108</v>
       </c>
       <c r="I156" s="1">
-        <v>43350.850694444445</v>
+        <v>43344.850694444445</v>
       </c>
       <c r="J156" s="1">
-        <v>43350.84375</v>
+        <v>43344.85</v>
       </c>
       <c r="K156" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
       <c r="B157">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -5940,27 +6419,30 @@
         <v>2</v>
       </c>
       <c r="G157" s="1">
-        <v>43345.8125</v>
+        <v>43345.645833333336</v>
       </c>
       <c r="H157" s="1">
-        <v>43345.823611111111</v>
+        <v>43345.645833333336</v>
       </c>
       <c r="I157" s="1">
-        <v>43345.871527777781</v>
+        <v>43345.701388888891</v>
       </c>
       <c r="J157" s="1">
-        <v>43345.869444444441</v>
+        <v>43345.701388888891</v>
       </c>
       <c r="K157" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>0</v>
       </c>
       <c r="B158">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -5975,27 +6457,30 @@
         <v>2</v>
       </c>
       <c r="G158" s="1">
-        <v>43346.8125</v>
+        <v>43346.645833333336</v>
       </c>
       <c r="H158" s="1">
-        <v>43346.809027777781</v>
+        <v>43346.645833333336</v>
       </c>
       <c r="I158" s="1">
-        <v>43346.871527777781</v>
+        <v>43346.701388888891</v>
       </c>
       <c r="J158" s="1">
-        <v>43346.863888888889</v>
+        <v>43346.701388888891</v>
       </c>
       <c r="K158" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>0</v>
       </c>
       <c r="B159">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6010,27 +6495,30 @@
         <v>2</v>
       </c>
       <c r="G159" s="1">
-        <v>43347.8125</v>
+        <v>43347.645833333336</v>
       </c>
       <c r="H159" s="1">
-        <v>43347.81527777778</v>
+        <v>43347.645833333336</v>
       </c>
       <c r="I159" s="1">
-        <v>43347.871527777781</v>
+        <v>43347.701388888891</v>
       </c>
       <c r="J159" s="1">
-        <v>43347.868055555555</v>
+        <v>43347.701388888891</v>
       </c>
       <c r="K159" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>0</v>
       </c>
       <c r="B160">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6045,27 +6533,30 @@
         <v>2</v>
       </c>
       <c r="G160" s="1">
-        <v>43348.8125</v>
+        <v>43348.645833333336</v>
       </c>
       <c r="H160" s="1">
-        <v>43348.816666666666</v>
+        <v>43348.644444444442</v>
       </c>
       <c r="I160" s="1">
-        <v>43348.871527777781</v>
+        <v>43348.701388888891</v>
       </c>
       <c r="J160" s="1">
-        <v>43348.867361111108</v>
+        <v>43348.694444444445</v>
       </c>
       <c r="K160" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
       <c r="B161">
-        <v>4421</v>
+        <v>4951</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6080,27 +6571,30 @@
         <v>2</v>
       </c>
       <c r="G161" s="1">
-        <v>43349.8125</v>
+        <v>43349.645833333336</v>
       </c>
       <c r="H161" s="1">
-        <v>43349.81527777778</v>
+        <v>43349.640972222223</v>
       </c>
       <c r="I161" s="1">
-        <v>43349.871527777781</v>
+        <v>43349.701388888891</v>
       </c>
       <c r="J161" s="1">
-        <v>43349.864583333336</v>
+        <v>43349.69027777778</v>
       </c>
       <c r="K161" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>0</v>
       </c>
       <c r="B162">
-        <v>4421</v>
+        <v>5071</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6109,278 +6603,302 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="1">
+        <v>43344.475694444445</v>
+      </c>
+      <c r="H162" s="1">
+        <v>43344.475694444445</v>
+      </c>
+      <c r="I162" s="1">
+        <v>43344.520833333336</v>
+      </c>
+      <c r="J162" s="1">
+        <v>43344.520833333336</v>
+      </c>
+      <c r="K162" t="s">
+        <v>4</v>
+      </c>
+      <c r="L162" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>5071</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="1">
+        <v>43346.482638888891</v>
+      </c>
+      <c r="H163" s="1">
+        <v>43346.475694444445</v>
+      </c>
+      <c r="I163" s="1">
+        <v>43346.527777777781</v>
+      </c>
+      <c r="J163" s="1">
+        <v>43346.515972222223</v>
+      </c>
+      <c r="K163" t="s">
+        <v>4</v>
+      </c>
+      <c r="L163" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>5071</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="1">
+        <v>43347.482638888891</v>
+      </c>
+      <c r="H164" s="1">
+        <v>43347.475694444445</v>
+      </c>
+      <c r="I164" s="1">
+        <v>43347.527777777781</v>
+      </c>
+      <c r="J164" s="1">
+        <v>43347.518750000003</v>
+      </c>
+      <c r="K164" t="s">
+        <v>4</v>
+      </c>
+      <c r="L164" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>5071</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="1">
+        <v>43348.482638888891</v>
+      </c>
+      <c r="H165" s="1">
+        <v>43348.474999999999</v>
+      </c>
+      <c r="I165" s="1">
+        <v>43348.527777777781</v>
+      </c>
+      <c r="J165" s="1">
+        <v>43348.515972222223</v>
+      </c>
+      <c r="K165" t="s">
+        <v>4</v>
+      </c>
+      <c r="L165" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>5071</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="1">
+        <v>43349.482638888891</v>
+      </c>
+      <c r="H166" s="1">
+        <v>43349.482638888891</v>
+      </c>
+      <c r="I166" s="1">
+        <v>43349.527777777781</v>
+      </c>
+      <c r="J166" s="1">
+        <v>43349.527777777781</v>
+      </c>
+      <c r="K166" t="s">
+        <v>4</v>
+      </c>
+      <c r="L166" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>5160</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+      <c r="F167" t="s">
+        <v>2</v>
+      </c>
+      <c r="G167" s="1">
+        <v>43344.354166666664</v>
+      </c>
+      <c r="H167" s="1">
+        <v>43344.354166666664</v>
+      </c>
+      <c r="I167" s="1">
+        <v>43344.40625</v>
+      </c>
+      <c r="J167" s="1">
+        <v>43344.40625</v>
+      </c>
+      <c r="K167" t="s">
+        <v>4</v>
+      </c>
+      <c r="L167" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>5162</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
         <v>3</v>
       </c>
-      <c r="F162" t="s">
-        <v>2</v>
-      </c>
-      <c r="G162" s="1">
-        <v>43350.8125</v>
-      </c>
-      <c r="H162" s="1">
-        <v>43350.804166666669</v>
-      </c>
-      <c r="I162" s="1">
-        <v>43350.871527777781</v>
-      </c>
-      <c r="J162" s="1">
-        <v>43350.862500000003</v>
-      </c>
-      <c r="K162" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163">
-        <v>4423</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1</v>
-      </c>
-      <c r="E163" t="s">
-        <v>18</v>
-      </c>
-      <c r="F163" t="s">
-        <v>2</v>
-      </c>
-      <c r="G163" s="1">
-        <v>43344.40625</v>
-      </c>
-      <c r="H163" s="1">
-        <v>43344.40625</v>
-      </c>
-      <c r="I163" s="1">
-        <v>43344.479166666664</v>
-      </c>
-      <c r="J163" s="1">
-        <v>43344.473611111112</v>
-      </c>
-      <c r="K163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164">
-        <v>4423</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1</v>
-      </c>
-      <c r="E164" t="s">
-        <v>18</v>
-      </c>
-      <c r="F164" t="s">
-        <v>2</v>
-      </c>
-      <c r="G164" s="1">
-        <v>43346.645833333336</v>
-      </c>
-      <c r="H164" s="1">
-        <v>43346.645833333336</v>
-      </c>
-      <c r="I164" s="1">
-        <v>43346.71875</v>
-      </c>
-      <c r="J164" s="1">
-        <v>43346.71875</v>
-      </c>
-      <c r="K164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165">
-        <v>4423</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1</v>
-      </c>
-      <c r="E165" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165" t="s">
-        <v>2</v>
-      </c>
-      <c r="G165" s="1">
-        <v>43347.645833333336</v>
-      </c>
-      <c r="H165" s="1">
-        <v>43347.637499999997</v>
-      </c>
-      <c r="I165" s="1">
-        <v>43347.71875</v>
-      </c>
-      <c r="J165" s="1">
-        <v>43347.712500000001</v>
-      </c>
-      <c r="K165" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B166">
-        <v>4423</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1</v>
-      </c>
-      <c r="E166" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" t="s">
-        <v>2</v>
-      </c>
-      <c r="G166" s="1">
-        <v>43348.645833333336</v>
-      </c>
-      <c r="H166" s="1">
-        <v>43348.640972222223</v>
-      </c>
-      <c r="I166" s="1">
-        <v>43348.71875</v>
-      </c>
-      <c r="J166" s="1">
-        <v>43348.709027777775</v>
-      </c>
-      <c r="K166" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167">
-        <v>4423</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" t="s">
-        <v>2</v>
-      </c>
-      <c r="G167" s="1">
-        <v>43349.645833333336</v>
-      </c>
-      <c r="H167" s="1">
-        <v>43349.645833333336</v>
-      </c>
-      <c r="I167" s="1">
-        <v>43349.71875</v>
-      </c>
-      <c r="J167" s="1">
-        <v>43349.71875</v>
-      </c>
-      <c r="K167" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168">
-        <v>4492</v>
-      </c>
-      <c r="C168">
+      <c r="F168" t="s">
+        <v>2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>43346.402777777781</v>
+      </c>
+      <c r="H168" s="1">
+        <v>43346.402777777781</v>
+      </c>
+      <c r="I168" s="1">
+        <v>43346.458333333336</v>
+      </c>
+      <c r="J168" s="1">
+        <v>43346.458333333336</v>
+      </c>
+      <c r="K168" t="s">
+        <v>4</v>
+      </c>
+      <c r="L168" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>5162</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
         <v>3</v>
       </c>
-      <c r="D168" t="s">
-        <v>1</v>
-      </c>
-      <c r="E168" t="s">
-        <v>2</v>
-      </c>
-      <c r="F168" t="s">
-        <v>2</v>
-      </c>
-      <c r="G168" s="1">
-        <v>43345.486111111109</v>
-      </c>
-      <c r="H168" s="1">
-        <v>43345.486111111109</v>
-      </c>
-      <c r="I168" s="1">
-        <v>43345.496527777781</v>
-      </c>
-      <c r="J168" s="1">
-        <v>43345.496527777781</v>
-      </c>
-      <c r="K168" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B169">
-        <v>4949</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1</v>
-      </c>
-      <c r="E169" t="s">
-        <v>6</v>
-      </c>
       <c r="F169" t="s">
         <v>2</v>
       </c>
       <c r="G169" s="1">
-        <v>43344.805555555555</v>
+        <v>43347.402777777781</v>
       </c>
       <c r="H169" s="1">
-        <v>43344.804861111108</v>
+        <v>43347.402777777781</v>
       </c>
       <c r="I169" s="1">
-        <v>43344.850694444445</v>
+        <v>43347.458333333336</v>
       </c>
       <c r="J169" s="1">
-        <v>43344.85</v>
+        <v>43347.458333333336</v>
       </c>
       <c r="K169" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>0</v>
       </c>
       <c r="B170">
-        <v>4951</v>
+        <v>5162</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -6395,27 +6913,30 @@
         <v>2</v>
       </c>
       <c r="G170" s="1">
-        <v>43345.645833333336</v>
+        <v>43348.402777777781</v>
       </c>
       <c r="H170" s="1">
-        <v>43345.645833333336</v>
+        <v>43348.414583333331</v>
       </c>
       <c r="I170" s="1">
-        <v>43345.701388888891</v>
+        <v>43348.458333333336</v>
       </c>
       <c r="J170" s="1">
-        <v>43345.701388888891</v>
+        <v>43348.461805555555</v>
       </c>
       <c r="K170" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
       <c r="B171">
-        <v>4951</v>
+        <v>5162</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -6430,27 +6951,30 @@
         <v>2</v>
       </c>
       <c r="G171" s="1">
-        <v>43346.645833333336</v>
+        <v>43349.402777777781</v>
       </c>
       <c r="H171" s="1">
-        <v>43346.645833333336</v>
+        <v>43349.455555555556</v>
       </c>
       <c r="I171" s="1">
-        <v>43346.701388888891</v>
+        <v>43349.458333333336</v>
       </c>
       <c r="J171" s="1">
-        <v>43346.701388888891</v>
+        <v>43349.510416666664</v>
       </c>
       <c r="K171" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>0</v>
       </c>
       <c r="B172">
-        <v>4951</v>
+        <v>5166</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6459,33 +6983,36 @@
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F172" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G172" s="1">
-        <v>43347.645833333336</v>
+        <v>43346.34375</v>
       </c>
       <c r="H172" s="1">
-        <v>43347.645833333336</v>
+        <v>43346.340277777781</v>
       </c>
       <c r="I172" s="1">
-        <v>43347.701388888891</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="J172" s="1">
-        <v>43347.701388888891</v>
+        <v>43346.388888888891</v>
       </c>
       <c r="K172" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>0</v>
       </c>
       <c r="B173">
-        <v>4951</v>
+        <v>5166</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6494,33 +7021,36 @@
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G173" s="1">
-        <v>43348.645833333336</v>
+        <v>43347.34375</v>
       </c>
       <c r="H173" s="1">
-        <v>43348.644444444442</v>
+        <v>43347.339583333334</v>
       </c>
       <c r="I173" s="1">
-        <v>43348.701388888891</v>
+        <v>43347.392361111109</v>
       </c>
       <c r="J173" s="1">
-        <v>43348.694444444445</v>
+        <v>43347.379861111112</v>
       </c>
       <c r="K173" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>0</v>
       </c>
       <c r="B174">
-        <v>4951</v>
+        <v>5166</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6529,33 +7059,36 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F174" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G174" s="1">
-        <v>43349.645833333336</v>
+        <v>43348.34375</v>
       </c>
       <c r="H174" s="1">
-        <v>43349.640972222223</v>
+        <v>43348.34375</v>
       </c>
       <c r="I174" s="1">
-        <v>43349.701388888891</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="J174" s="1">
-        <v>43349.69027777778</v>
+        <v>43348.392361111109</v>
       </c>
       <c r="K174" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>0</v>
       </c>
       <c r="B175">
-        <v>5055</v>
+        <v>5166</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6567,30 +7100,33 @@
         <v>2</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G175" s="1">
-        <v>43344.427083333336</v>
+        <v>43350.34375</v>
       </c>
       <c r="H175" s="1">
-        <v>43344.421527777777</v>
+        <v>43350.336805555555</v>
       </c>
       <c r="I175" s="1">
-        <v>43344.496527777781</v>
+        <v>43350.392361111109</v>
       </c>
       <c r="J175" s="1">
-        <v>43344.490277777775</v>
+        <v>43350.390277777777</v>
       </c>
       <c r="K175" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>0</v>
       </c>
       <c r="B176">
-        <v>5071</v>
+        <v>6991</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -6599,313 +7135,340 @@
         <v>1</v>
       </c>
       <c r="E176" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F176" t="s">
+        <v>2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>43350.552083333336</v>
+      </c>
+      <c r="H176" s="1">
+        <v>43350.548611111109</v>
+      </c>
+      <c r="I176" s="1">
+        <v>43350.600694444445</v>
+      </c>
+      <c r="J176" s="1">
+        <v>43350.588888888888</v>
+      </c>
+      <c r="K176" t="s">
+        <v>4</v>
+      </c>
+      <c r="L176" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>6996</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="1">
+        <v>43344.336805555555</v>
+      </c>
+      <c r="H177" s="1">
+        <v>43344.332638888889</v>
+      </c>
+      <c r="I177" s="1">
+        <v>43344.392361111109</v>
+      </c>
+      <c r="J177" s="1">
+        <v>43344.390972222223</v>
+      </c>
+      <c r="K177" t="s">
+        <v>4</v>
+      </c>
+      <c r="L177" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>6999</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
         <v>6</v>
       </c>
-      <c r="G176" s="1">
-        <v>43344.475694444445</v>
-      </c>
-      <c r="H176" s="1">
-        <v>43344.475694444445</v>
-      </c>
-      <c r="I176" s="1">
-        <v>43344.520833333336</v>
-      </c>
-      <c r="J176" s="1">
-        <v>43344.520833333336</v>
-      </c>
-      <c r="K176" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177">
-        <v>5071</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1</v>
-      </c>
-      <c r="E177" t="s">
-        <v>2</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="F178" t="s">
+        <v>2</v>
+      </c>
+      <c r="G178" s="1">
+        <v>43344.260416666664</v>
+      </c>
+      <c r="H178" s="1">
+        <v>43344.261111111111</v>
+      </c>
+      <c r="I178" s="1">
+        <v>43344.309027777781</v>
+      </c>
+      <c r="J178" s="1">
+        <v>43344.308333333334</v>
+      </c>
+      <c r="K178" t="s">
+        <v>4</v>
+      </c>
+      <c r="L178" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>6999</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
         <v>6</v>
       </c>
-      <c r="G177" s="1">
-        <v>43346.482638888891</v>
-      </c>
-      <c r="H177" s="1">
-        <v>43346.475694444445</v>
-      </c>
-      <c r="I177" s="1">
-        <v>43346.527777777781</v>
-      </c>
-      <c r="J177" s="1">
-        <v>43346.515972222223</v>
-      </c>
-      <c r="K177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178">
-        <v>5071</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1</v>
-      </c>
-      <c r="E178" t="s">
-        <v>2</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="F179" t="s">
+        <v>2</v>
+      </c>
+      <c r="G179" s="1">
+        <v>43346.263888888891</v>
+      </c>
+      <c r="H179" s="1">
+        <v>43346.256249999999</v>
+      </c>
+      <c r="I179" s="1">
+        <v>43346.3125</v>
+      </c>
+      <c r="J179" s="1">
+        <v>43346.30972222222</v>
+      </c>
+      <c r="K179" t="s">
+        <v>4</v>
+      </c>
+      <c r="L179" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>6999</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
         <v>6</v>
       </c>
-      <c r="G178" s="1">
-        <v>43347.482638888891</v>
-      </c>
-      <c r="H178" s="1">
-        <v>43347.475694444445</v>
-      </c>
-      <c r="I178" s="1">
-        <v>43347.527777777781</v>
-      </c>
-      <c r="J178" s="1">
-        <v>43347.518750000003</v>
-      </c>
-      <c r="K178" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179">
-        <v>5071</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1</v>
-      </c>
-      <c r="E179" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="F180" t="s">
+        <v>2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>43347.263888888891</v>
+      </c>
+      <c r="H180" s="1">
+        <v>43347.256944444445</v>
+      </c>
+      <c r="I180" s="1">
+        <v>43347.3125</v>
+      </c>
+      <c r="J180" s="1">
+        <v>43347.311805555553</v>
+      </c>
+      <c r="K180" t="s">
+        <v>4</v>
+      </c>
+      <c r="L180" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>6999</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
         <v>6</v>
       </c>
-      <c r="G179" s="1">
-        <v>43348.482638888891</v>
-      </c>
-      <c r="H179" s="1">
-        <v>43348.474999999999</v>
-      </c>
-      <c r="I179" s="1">
-        <v>43348.527777777781</v>
-      </c>
-      <c r="J179" s="1">
-        <v>43348.515972222223</v>
-      </c>
-      <c r="K179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180">
-        <v>5071</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>2</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="F181" t="s">
+        <v>2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>43348.263888888891</v>
+      </c>
+      <c r="H181" s="1">
+        <v>43348.259027777778</v>
+      </c>
+      <c r="I181" s="1">
+        <v>43348.3125</v>
+      </c>
+      <c r="J181" s="1">
+        <v>43348.303472222222</v>
+      </c>
+      <c r="K181" t="s">
+        <v>4</v>
+      </c>
+      <c r="L181" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>6999</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
         <v>6</v>
       </c>
-      <c r="G180" s="1">
-        <v>43349.482638888891</v>
-      </c>
-      <c r="H180" s="1">
-        <v>43349.482638888891</v>
-      </c>
-      <c r="I180" s="1">
-        <v>43349.527777777781</v>
-      </c>
-      <c r="J180" s="1">
-        <v>43349.527777777781</v>
-      </c>
-      <c r="K180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>0</v>
-      </c>
-      <c r="B181">
-        <v>5084</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
-        <v>18</v>
-      </c>
-      <c r="F181" t="s">
-        <v>2</v>
-      </c>
-      <c r="G181" s="1">
-        <v>43345.611111111109</v>
-      </c>
-      <c r="H181" s="1">
-        <v>43345.611111111109</v>
-      </c>
-      <c r="I181" s="1">
-        <v>43345.680555555555</v>
-      </c>
-      <c r="J181" s="1">
-        <v>43345.680555555555</v>
-      </c>
-      <c r="K181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182">
-        <v>5127</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1</v>
-      </c>
-      <c r="E182" t="s">
-        <v>2</v>
-      </c>
       <c r="F182" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G182" s="1">
-        <v>43345.708333333336</v>
+        <v>43349.263888888891</v>
       </c>
       <c r="H182" s="1">
-        <v>43345.708333333336</v>
+        <v>43349.256249999999</v>
       </c>
       <c r="I182" s="1">
+        <v>43349.3125</v>
+      </c>
+      <c r="J182" s="1">
+        <v>43349.299305555556</v>
+      </c>
+      <c r="K182" t="s">
+        <v>4</v>
+      </c>
+      <c r="L182" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>6999</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>2</v>
+      </c>
+      <c r="G183" s="1">
+        <v>43350.263888888891</v>
+      </c>
+      <c r="H183" s="1">
+        <v>43350.259027777778</v>
+      </c>
+      <c r="I183" s="1">
+        <v>43350.3125</v>
+      </c>
+      <c r="J183" s="1">
+        <v>43350.306250000001</v>
+      </c>
+      <c r="K183" t="s">
+        <v>4</v>
+      </c>
+      <c r="L183" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>9290</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="1">
         <v>43345.777777777781</v>
       </c>
-      <c r="J182" s="1">
-        <v>43345.777777777781</v>
-      </c>
-      <c r="K182" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183">
-        <v>5127</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1</v>
-      </c>
-      <c r="E183" t="s">
-        <v>2</v>
-      </c>
-      <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" s="1">
-        <v>43346.708333333336</v>
-      </c>
-      <c r="H183" s="1">
-        <v>43346.708333333336</v>
-      </c>
-      <c r="I183" s="1">
-        <v>43346.777777777781</v>
-      </c>
-      <c r="J183" s="1">
-        <v>43346.777777777781</v>
-      </c>
-      <c r="K183" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B184">
-        <v>5127</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1</v>
-      </c>
-      <c r="E184" t="s">
-        <v>2</v>
-      </c>
-      <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" s="1">
-        <v>43347.708333333336</v>
-      </c>
       <c r="H184" s="1">
-        <v>43347.724305555559</v>
+        <v>43345.775000000001</v>
       </c>
       <c r="I184" s="1">
-        <v>43347.777777777781</v>
+        <v>43345.836805555555</v>
       </c>
       <c r="J184" s="1">
-        <v>43347.79583333333</v>
+        <v>43345.828472222223</v>
       </c>
       <c r="K184" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>0</v>
       </c>
       <c r="B185">
-        <v>5127</v>
+        <v>4003</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -6920,442 +7483,481 @@
         <v>18</v>
       </c>
       <c r="G185" s="1">
+        <v>43345.5</v>
+      </c>
+      <c r="H185" s="1">
+        <v>43345.524305555555</v>
+      </c>
+      <c r="I185" s="1">
+        <v>43345.572916666664</v>
+      </c>
+      <c r="J185" s="1">
+        <v>43345.591666666667</v>
+      </c>
+      <c r="K185" t="s">
+        <v>4</v>
+      </c>
+      <c r="L185" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>4423</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" t="s">
+        <v>2</v>
+      </c>
+      <c r="G186" s="1">
+        <v>43344.40625</v>
+      </c>
+      <c r="H186" s="1">
+        <v>43344.40625</v>
+      </c>
+      <c r="I186" s="1">
+        <v>43344.479166666664</v>
+      </c>
+      <c r="J186" s="1">
+        <v>43344.473611111112</v>
+      </c>
+      <c r="K186" t="s">
+        <v>4</v>
+      </c>
+      <c r="L186" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>4423</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" t="s">
+        <v>2</v>
+      </c>
+      <c r="G187" s="1">
+        <v>43346.645833333336</v>
+      </c>
+      <c r="H187" s="1">
+        <v>43346.645833333336</v>
+      </c>
+      <c r="I187" s="1">
+        <v>43346.71875</v>
+      </c>
+      <c r="J187" s="1">
+        <v>43346.71875</v>
+      </c>
+      <c r="K187" t="s">
+        <v>4</v>
+      </c>
+      <c r="L187" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>4423</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" t="s">
+        <v>2</v>
+      </c>
+      <c r="G188" s="1">
+        <v>43347.645833333336</v>
+      </c>
+      <c r="H188" s="1">
+        <v>43347.637499999997</v>
+      </c>
+      <c r="I188" s="1">
+        <v>43347.71875</v>
+      </c>
+      <c r="J188" s="1">
+        <v>43347.712500000001</v>
+      </c>
+      <c r="K188" t="s">
+        <v>4</v>
+      </c>
+      <c r="L188" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>4423</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189" t="s">
+        <v>2</v>
+      </c>
+      <c r="G189" s="1">
+        <v>43348.645833333336</v>
+      </c>
+      <c r="H189" s="1">
+        <v>43348.640972222223</v>
+      </c>
+      <c r="I189" s="1">
+        <v>43348.71875</v>
+      </c>
+      <c r="J189" s="1">
+        <v>43348.709027777775</v>
+      </c>
+      <c r="K189" t="s">
+        <v>4</v>
+      </c>
+      <c r="L189" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>4423</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" t="s">
+        <v>2</v>
+      </c>
+      <c r="G190" s="1">
+        <v>43349.645833333336</v>
+      </c>
+      <c r="H190" s="1">
+        <v>43349.645833333336</v>
+      </c>
+      <c r="I190" s="1">
+        <v>43349.71875</v>
+      </c>
+      <c r="J190" s="1">
+        <v>43349.71875</v>
+      </c>
+      <c r="K190" t="s">
+        <v>4</v>
+      </c>
+      <c r="L190" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>5055</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="1">
+        <v>43344.427083333336</v>
+      </c>
+      <c r="H191" s="1">
+        <v>43344.421527777777</v>
+      </c>
+      <c r="I191" s="1">
+        <v>43344.496527777781</v>
+      </c>
+      <c r="J191" s="1">
+        <v>43344.490277777775</v>
+      </c>
+      <c r="K191" t="s">
+        <v>4</v>
+      </c>
+      <c r="L191" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>5084</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" t="s">
+        <v>2</v>
+      </c>
+      <c r="G192" s="1">
+        <v>43345.611111111109</v>
+      </c>
+      <c r="H192" s="1">
+        <v>43345.611111111109</v>
+      </c>
+      <c r="I192" s="1">
+        <v>43345.680555555555</v>
+      </c>
+      <c r="J192" s="1">
+        <v>43345.680555555555</v>
+      </c>
+      <c r="K192" t="s">
+        <v>4</v>
+      </c>
+      <c r="L192" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>5127</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" s="1">
+        <v>43345.708333333336</v>
+      </c>
+      <c r="H193" s="1">
+        <v>43345.708333333336</v>
+      </c>
+      <c r="I193" s="1">
+        <v>43345.777777777781</v>
+      </c>
+      <c r="J193" s="1">
+        <v>43345.777777777781</v>
+      </c>
+      <c r="K193" t="s">
+        <v>4</v>
+      </c>
+      <c r="L193" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>5127</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="1">
+        <v>43346.708333333336</v>
+      </c>
+      <c r="H194" s="1">
+        <v>43346.708333333336</v>
+      </c>
+      <c r="I194" s="1">
+        <v>43346.777777777781</v>
+      </c>
+      <c r="J194" s="1">
+        <v>43346.777777777781</v>
+      </c>
+      <c r="K194" t="s">
+        <v>4</v>
+      </c>
+      <c r="L194" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>5127</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="1">
+        <v>43347.708333333336</v>
+      </c>
+      <c r="H195" s="1">
+        <v>43347.724305555559</v>
+      </c>
+      <c r="I195" s="1">
+        <v>43347.777777777781</v>
+      </c>
+      <c r="J195" s="1">
+        <v>43347.79583333333</v>
+      </c>
+      <c r="K195" t="s">
+        <v>4</v>
+      </c>
+      <c r="L195" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>5127</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="1">
         <v>43348.708333333336</v>
       </c>
-      <c r="H185" s="1">
+      <c r="H196" s="1">
         <v>43348.705555555556</v>
       </c>
-      <c r="I185" s="1">
+      <c r="I196" s="1">
         <v>43348.777777777781</v>
       </c>
-      <c r="J185" s="1">
+      <c r="J196" s="1">
         <v>43348.772222222222</v>
       </c>
-      <c r="K185" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>0</v>
-      </c>
-      <c r="B186">
+      <c r="K196" t="s">
+        <v>4</v>
+      </c>
+      <c r="L196" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197">
         <v>5127</v>
       </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>2</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
         <v>18</v>
       </c>
-      <c r="G186" s="1">
+      <c r="G197" s="1">
         <v>43349.708333333336</v>
       </c>
-      <c r="H186" s="1">
+      <c r="H197" s="1">
         <v>43349.708333333336</v>
       </c>
-      <c r="I186" s="1">
+      <c r="I197" s="1">
         <v>43349.777777777781</v>
       </c>
-      <c r="J186" s="1">
+      <c r="J197" s="1">
         <v>43349.777777777781</v>
       </c>
-      <c r="K186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187">
-        <v>5160</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1</v>
-      </c>
-      <c r="E187" t="s">
-        <v>5</v>
-      </c>
-      <c r="F187" t="s">
-        <v>2</v>
-      </c>
-      <c r="G187" s="1">
-        <v>43344.354166666664</v>
-      </c>
-      <c r="H187" s="1">
-        <v>43344.354166666664</v>
-      </c>
-      <c r="I187" s="1">
-        <v>43344.40625</v>
-      </c>
-      <c r="J187" s="1">
-        <v>43344.40625</v>
-      </c>
-      <c r="K187" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>0</v>
-      </c>
-      <c r="B188">
-        <v>5162</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1</v>
-      </c>
-      <c r="E188" t="s">
-        <v>3</v>
-      </c>
-      <c r="F188" t="s">
-        <v>2</v>
-      </c>
-      <c r="G188" s="1">
-        <v>43346.402777777781</v>
-      </c>
-      <c r="H188" s="1">
-        <v>43346.402777777781</v>
-      </c>
-      <c r="I188" s="1">
-        <v>43346.458333333336</v>
-      </c>
-      <c r="J188" s="1">
-        <v>43346.458333333336</v>
-      </c>
-      <c r="K188" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>0</v>
-      </c>
-      <c r="B189">
-        <v>5162</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E189" t="s">
-        <v>3</v>
-      </c>
-      <c r="F189" t="s">
-        <v>2</v>
-      </c>
-      <c r="G189" s="1">
-        <v>43347.402777777781</v>
-      </c>
-      <c r="H189" s="1">
-        <v>43347.402777777781</v>
-      </c>
-      <c r="I189" s="1">
-        <v>43347.458333333336</v>
-      </c>
-      <c r="J189" s="1">
-        <v>43347.458333333336</v>
-      </c>
-      <c r="K189" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B190">
-        <v>5162</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1</v>
-      </c>
-      <c r="E190" t="s">
-        <v>3</v>
-      </c>
-      <c r="F190" t="s">
-        <v>2</v>
-      </c>
-      <c r="G190" s="1">
-        <v>43348.402777777781</v>
-      </c>
-      <c r="H190" s="1">
-        <v>43348.414583333331</v>
-      </c>
-      <c r="I190" s="1">
-        <v>43348.458333333336</v>
-      </c>
-      <c r="J190" s="1">
-        <v>43348.461805555555</v>
-      </c>
-      <c r="K190" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191">
-        <v>5162</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1</v>
-      </c>
-      <c r="E191" t="s">
-        <v>3</v>
-      </c>
-      <c r="F191" t="s">
-        <v>2</v>
-      </c>
-      <c r="G191" s="1">
-        <v>43349.402777777781</v>
-      </c>
-      <c r="H191" s="1">
-        <v>43349.455555555556</v>
-      </c>
-      <c r="I191" s="1">
-        <v>43349.458333333336</v>
-      </c>
-      <c r="J191" s="1">
-        <v>43349.510416666664</v>
-      </c>
-      <c r="K191" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192">
-        <v>5166</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1</v>
-      </c>
-      <c r="E192" t="s">
-        <v>2</v>
-      </c>
-      <c r="F192" t="s">
-        <v>6</v>
-      </c>
-      <c r="G192" s="1">
-        <v>43346.34375</v>
-      </c>
-      <c r="H192" s="1">
-        <v>43346.340277777781</v>
-      </c>
-      <c r="I192" s="1">
-        <v>43346.392361111109</v>
-      </c>
-      <c r="J192" s="1">
-        <v>43346.388888888891</v>
-      </c>
-      <c r="K192" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>0</v>
-      </c>
-      <c r="B193">
-        <v>5166</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1</v>
-      </c>
-      <c r="E193" t="s">
-        <v>2</v>
-      </c>
-      <c r="F193" t="s">
-        <v>6</v>
-      </c>
-      <c r="G193" s="1">
-        <v>43347.34375</v>
-      </c>
-      <c r="H193" s="1">
-        <v>43347.339583333334</v>
-      </c>
-      <c r="I193" s="1">
-        <v>43347.392361111109</v>
-      </c>
-      <c r="J193" s="1">
-        <v>43347.379861111112</v>
-      </c>
-      <c r="K193" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194">
-        <v>5166</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1</v>
-      </c>
-      <c r="E194" t="s">
-        <v>2</v>
-      </c>
-      <c r="F194" t="s">
-        <v>6</v>
-      </c>
-      <c r="G194" s="1">
-        <v>43348.34375</v>
-      </c>
-      <c r="H194" s="1">
-        <v>43348.34375</v>
-      </c>
-      <c r="I194" s="1">
-        <v>43348.392361111109</v>
-      </c>
-      <c r="J194" s="1">
-        <v>43348.392361111109</v>
-      </c>
-      <c r="K194" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195">
-        <v>5166</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1</v>
-      </c>
-      <c r="E195" t="s">
-        <v>2</v>
-      </c>
-      <c r="F195" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="1">
-        <v>43350.34375</v>
-      </c>
-      <c r="H195" s="1">
-        <v>43350.336805555555</v>
-      </c>
-      <c r="I195" s="1">
-        <v>43350.392361111109</v>
-      </c>
-      <c r="J195" s="1">
-        <v>43350.390277777777</v>
-      </c>
-      <c r="K195" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196">
-        <v>5171</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1</v>
-      </c>
-      <c r="E196" t="s">
-        <v>18</v>
-      </c>
-      <c r="F196" t="s">
-        <v>2</v>
-      </c>
-      <c r="G196" s="1">
-        <v>43345.798611111109</v>
-      </c>
-      <c r="H196" s="1">
-        <v>43345.798611111109</v>
-      </c>
-      <c r="I196" s="1">
-        <v>43345.871527777781</v>
-      </c>
-      <c r="J196" s="1">
-        <v>43345.871527777781</v>
-      </c>
-      <c r="K196" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B197">
-        <v>5171</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1</v>
-      </c>
-      <c r="E197" t="s">
-        <v>18</v>
-      </c>
-      <c r="F197" t="s">
-        <v>2</v>
-      </c>
-      <c r="G197" s="1">
-        <v>43346.798611111109</v>
-      </c>
-      <c r="H197" s="1">
-        <v>43346.798611111109</v>
-      </c>
-      <c r="I197" s="1">
-        <v>43346.871527777781</v>
-      </c>
-      <c r="J197" s="1">
-        <v>43346.871527777781</v>
-      </c>
       <c r="K197" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -7375,22 +7977,25 @@
         <v>2</v>
       </c>
       <c r="G198" s="1">
-        <v>43347.798611111109</v>
+        <v>43345.798611111109</v>
       </c>
       <c r="H198" s="1">
-        <v>43347.81527777778</v>
+        <v>43345.798611111109</v>
       </c>
       <c r="I198" s="1">
-        <v>43347.871527777781</v>
+        <v>43345.871527777781</v>
       </c>
       <c r="J198" s="1">
-        <v>43347.886805555558</v>
+        <v>43345.871527777781</v>
       </c>
       <c r="K198" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>0</v>
       </c>
@@ -7410,22 +8015,25 @@
         <v>2</v>
       </c>
       <c r="G199" s="1">
-        <v>43348.798611111109</v>
+        <v>43346.798611111109</v>
       </c>
       <c r="H199" s="1">
-        <v>43348.796527777777</v>
+        <v>43346.798611111109</v>
       </c>
       <c r="I199" s="1">
-        <v>43348.871527777781</v>
+        <v>43346.871527777781</v>
       </c>
       <c r="J199" s="1">
-        <v>43348.868750000001</v>
+        <v>43346.871527777781</v>
       </c>
       <c r="K199" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -7445,22 +8053,25 @@
         <v>2</v>
       </c>
       <c r="G200" s="1">
-        <v>43349.798611111109</v>
+        <v>43347.798611111109</v>
       </c>
       <c r="H200" s="1">
-        <v>43349.798611111109</v>
+        <v>43347.81527777778</v>
       </c>
       <c r="I200" s="1">
-        <v>43349.871527777781</v>
+        <v>43347.871527777781</v>
       </c>
       <c r="J200" s="1">
-        <v>43349.871527777781</v>
+        <v>43347.886805555558</v>
       </c>
       <c r="K200" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -7480,92 +8091,101 @@
         <v>2</v>
       </c>
       <c r="G201" s="1">
+        <v>43348.798611111109</v>
+      </c>
+      <c r="H201" s="1">
+        <v>43348.796527777777</v>
+      </c>
+      <c r="I201" s="1">
+        <v>43348.871527777781</v>
+      </c>
+      <c r="J201" s="1">
+        <v>43348.868750000001</v>
+      </c>
+      <c r="K201" t="s">
+        <v>4</v>
+      </c>
+      <c r="L201" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>5171</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" t="s">
+        <v>2</v>
+      </c>
+      <c r="G202" s="1">
+        <v>43349.798611111109</v>
+      </c>
+      <c r="H202" s="1">
+        <v>43349.798611111109</v>
+      </c>
+      <c r="I202" s="1">
+        <v>43349.871527777781</v>
+      </c>
+      <c r="J202" s="1">
+        <v>43349.871527777781</v>
+      </c>
+      <c r="K202" t="s">
+        <v>4</v>
+      </c>
+      <c r="L202" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>5171</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>18</v>
+      </c>
+      <c r="F203" t="s">
+        <v>2</v>
+      </c>
+      <c r="G203" s="1">
         <v>43350.798611111109</v>
       </c>
-      <c r="H201" s="1">
+      <c r="H203" s="1">
         <v>43350.795138888891</v>
       </c>
-      <c r="I201" s="1">
+      <c r="I203" s="1">
         <v>43350.871527777781</v>
       </c>
-      <c r="J201" s="1">
+      <c r="J203" s="1">
         <v>43350.867361111108</v>
       </c>
-      <c r="K201" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>0</v>
-      </c>
-      <c r="B202">
-        <v>5194</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1</v>
-      </c>
-      <c r="E202" t="s">
-        <v>2</v>
-      </c>
-      <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" s="1">
-        <v>43345.892361111109</v>
-      </c>
-      <c r="H202" s="1">
-        <v>43345.892361111109</v>
-      </c>
-      <c r="I202" s="1">
-        <v>43345.961805555555</v>
-      </c>
-      <c r="J202" s="1">
-        <v>43345.961805555555</v>
-      </c>
-      <c r="K202" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203">
-        <v>5194</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1</v>
-      </c>
-      <c r="E203" t="s">
-        <v>2</v>
-      </c>
-      <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="1">
-        <v>43346.892361111109</v>
-      </c>
-      <c r="H203" s="1">
-        <v>43346.892361111109</v>
-      </c>
-      <c r="I203" s="1">
-        <v>43346.961805555555</v>
-      </c>
-      <c r="J203" s="1">
-        <v>43346.961805555555</v>
-      </c>
       <c r="K203" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -7585,22 +8205,25 @@
         <v>18</v>
       </c>
       <c r="G204" s="1">
-        <v>43347.892361111109</v>
+        <v>43345.892361111109</v>
       </c>
       <c r="H204" s="1">
-        <v>43347.892361111109</v>
+        <v>43345.892361111109</v>
       </c>
       <c r="I204" s="1">
-        <v>43347.961805555555</v>
+        <v>43345.961805555555</v>
       </c>
       <c r="J204" s="1">
-        <v>43347.961805555555</v>
+        <v>43345.961805555555</v>
       </c>
       <c r="K204" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -7620,22 +8243,25 @@
         <v>18</v>
       </c>
       <c r="G205" s="1">
-        <v>43348.892361111109</v>
+        <v>43346.892361111109</v>
       </c>
       <c r="H205" s="1">
-        <v>43348.892361111109</v>
+        <v>43346.892361111109</v>
       </c>
       <c r="I205" s="1">
-        <v>43348.961805555555</v>
+        <v>43346.961805555555</v>
       </c>
       <c r="J205" s="1">
-        <v>43348.961805555555</v>
+        <v>43346.961805555555</v>
       </c>
       <c r="K205" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -7655,22 +8281,25 @@
         <v>18</v>
       </c>
       <c r="G206" s="1">
-        <v>43349.892361111109</v>
+        <v>43347.892361111109</v>
       </c>
       <c r="H206" s="1">
-        <v>43349.9</v>
+        <v>43347.892361111109</v>
       </c>
       <c r="I206" s="1">
-        <v>43349.961805555555</v>
+        <v>43347.961805555555</v>
       </c>
       <c r="J206" s="1">
-        <v>43349.974305555559</v>
+        <v>43347.961805555555</v>
       </c>
       <c r="K206" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>0</v>
       </c>
@@ -7690,97 +8319,106 @@
         <v>18</v>
       </c>
       <c r="G207" s="1">
+        <v>43348.892361111109</v>
+      </c>
+      <c r="H207" s="1">
+        <v>43348.892361111109</v>
+      </c>
+      <c r="I207" s="1">
+        <v>43348.961805555555</v>
+      </c>
+      <c r="J207" s="1">
+        <v>43348.961805555555</v>
+      </c>
+      <c r="K207" t="s">
+        <v>4</v>
+      </c>
+      <c r="L207" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>5194</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>2</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" s="1">
+        <v>43349.892361111109</v>
+      </c>
+      <c r="H208" s="1">
+        <v>43349.9</v>
+      </c>
+      <c r="I208" s="1">
+        <v>43349.961805555555</v>
+      </c>
+      <c r="J208" s="1">
+        <v>43349.974305555559</v>
+      </c>
+      <c r="K208" t="s">
+        <v>4</v>
+      </c>
+      <c r="L208" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>5194</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" s="1">
         <v>43350.892361111109</v>
       </c>
-      <c r="H207" s="1">
+      <c r="H209" s="1">
         <v>43350.886805555558</v>
       </c>
-      <c r="I207" s="1">
+      <c r="I209" s="1">
         <v>43350.961805555555</v>
       </c>
-      <c r="J207" s="1">
+      <c r="J209" s="1">
         <v>43350.959027777775</v>
       </c>
-      <c r="K207" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208">
+      <c r="K209" t="s">
+        <v>4</v>
+      </c>
+      <c r="L209" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210">
         <v>5220</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1</v>
-      </c>
-      <c r="E208" t="s">
-        <v>18</v>
-      </c>
-      <c r="F208" t="s">
-        <v>2</v>
-      </c>
-      <c r="G208" s="1">
-        <v>43345.743055555555</v>
-      </c>
-      <c r="H208" s="1">
-        <v>43345.743750000001</v>
-      </c>
-      <c r="I208" s="1">
-        <v>43345.8125</v>
-      </c>
-      <c r="J208" s="1">
-        <v>43345.810416666667</v>
-      </c>
-      <c r="K208" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209">
-        <v>5300</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1</v>
-      </c>
-      <c r="E209" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209" t="s">
-        <v>2</v>
-      </c>
-      <c r="G209" s="1">
-        <v>43346.392361111109</v>
-      </c>
-      <c r="H209" s="1">
-        <v>43346.388194444444</v>
-      </c>
-      <c r="I209" s="1">
-        <v>43346.465277777781</v>
-      </c>
-      <c r="J209" s="1">
-        <v>43346.460416666669</v>
-      </c>
-      <c r="K209" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210">
-        <v>5300</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -7795,22 +8433,25 @@
         <v>2</v>
       </c>
       <c r="G210" s="1">
-        <v>43347.392361111109</v>
+        <v>43345.743055555555</v>
       </c>
       <c r="H210" s="1">
-        <v>43347.392361111109</v>
+        <v>43345.743750000001</v>
       </c>
       <c r="I210" s="1">
-        <v>43347.465277777781</v>
+        <v>43345.8125</v>
       </c>
       <c r="J210" s="1">
-        <v>43347.465277777781</v>
+        <v>43345.810416666667</v>
       </c>
       <c r="K210" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -7830,22 +8471,25 @@
         <v>2</v>
       </c>
       <c r="G211" s="1">
-        <v>43348.392361111109</v>
+        <v>43346.392361111109</v>
       </c>
       <c r="H211" s="1">
-        <v>43348.383333333331</v>
+        <v>43346.388194444444</v>
       </c>
       <c r="I211" s="1">
-        <v>43348.465277777781</v>
+        <v>43346.465277777781</v>
       </c>
       <c r="J211" s="1">
-        <v>43348.451388888891</v>
+        <v>43346.460416666669</v>
       </c>
       <c r="K211" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L211" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -7865,22 +8509,25 @@
         <v>2</v>
       </c>
       <c r="G212" s="1">
-        <v>43349.392361111109</v>
+        <v>43347.392361111109</v>
       </c>
       <c r="H212" s="1">
-        <v>43349.390277777777</v>
+        <v>43347.392361111109</v>
       </c>
       <c r="I212" s="1">
-        <v>43349.465277777781</v>
+        <v>43347.465277777781</v>
       </c>
       <c r="J212" s="1">
-        <v>43349.461111111108</v>
+        <v>43347.465277777781</v>
       </c>
       <c r="K212" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -7900,92 +8547,101 @@
         <v>2</v>
       </c>
       <c r="G213" s="1">
+        <v>43348.392361111109</v>
+      </c>
+      <c r="H213" s="1">
+        <v>43348.383333333331</v>
+      </c>
+      <c r="I213" s="1">
+        <v>43348.465277777781</v>
+      </c>
+      <c r="J213" s="1">
+        <v>43348.451388888891</v>
+      </c>
+      <c r="K213" t="s">
+        <v>4</v>
+      </c>
+      <c r="L213" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>5300</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214" t="s">
+        <v>2</v>
+      </c>
+      <c r="G214" s="1">
+        <v>43349.392361111109</v>
+      </c>
+      <c r="H214" s="1">
+        <v>43349.390277777777</v>
+      </c>
+      <c r="I214" s="1">
+        <v>43349.465277777781</v>
+      </c>
+      <c r="J214" s="1">
+        <v>43349.461111111108</v>
+      </c>
+      <c r="K214" t="s">
+        <v>4</v>
+      </c>
+      <c r="L214" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>5300</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>18</v>
+      </c>
+      <c r="F215" t="s">
+        <v>2</v>
+      </c>
+      <c r="G215" s="1">
         <v>43350.375</v>
       </c>
-      <c r="H213" s="1">
+      <c r="H215" s="1">
         <v>43350.369444444441</v>
       </c>
-      <c r="I213" s="1">
+      <c r="I215" s="1">
         <v>43350.447916666664</v>
       </c>
-      <c r="J213" s="1">
+      <c r="J215" s="1">
         <v>43350.446527777778</v>
       </c>
-      <c r="K213" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>0</v>
-      </c>
-      <c r="B214">
-        <v>5301</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1</v>
-      </c>
-      <c r="E214" t="s">
-        <v>2</v>
-      </c>
-      <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="1">
-        <v>43346.5</v>
-      </c>
-      <c r="H214" s="1">
-        <v>43346.498611111114</v>
-      </c>
-      <c r="I214" s="1">
-        <v>43346.572916666664</v>
-      </c>
-      <c r="J214" s="1">
-        <v>43346.56527777778</v>
-      </c>
-      <c r="K214" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215">
-        <v>5301</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1</v>
-      </c>
-      <c r="E215" t="s">
-        <v>2</v>
-      </c>
-      <c r="F215" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" s="1">
-        <v>43347.5</v>
-      </c>
-      <c r="H215" s="1">
-        <v>43347.497916666667</v>
-      </c>
-      <c r="I215" s="1">
-        <v>43347.572916666664</v>
-      </c>
-      <c r="J215" s="1">
-        <v>43347.571527777778</v>
-      </c>
       <c r="K215" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -8005,22 +8661,25 @@
         <v>18</v>
       </c>
       <c r="G216" s="1">
-        <v>43348.5</v>
+        <v>43346.5</v>
       </c>
       <c r="H216" s="1">
-        <v>43348.512499999997</v>
+        <v>43346.498611111114</v>
       </c>
       <c r="I216" s="1">
-        <v>43348.572916666664</v>
+        <v>43346.572916666664</v>
       </c>
       <c r="J216" s="1">
-        <v>43348.586805555555</v>
+        <v>43346.56527777778</v>
       </c>
       <c r="K216" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -8040,22 +8699,25 @@
         <v>18</v>
       </c>
       <c r="G217" s="1">
-        <v>43349.5</v>
+        <v>43347.5</v>
       </c>
       <c r="H217" s="1">
-        <v>43349.501388888886</v>
+        <v>43347.497916666667</v>
       </c>
       <c r="I217" s="1">
-        <v>43349.572916666664</v>
+        <v>43347.572916666664</v>
       </c>
       <c r="J217" s="1">
-        <v>43349.570833333331</v>
+        <v>43347.571527777778</v>
       </c>
       <c r="K217" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>0</v>
       </c>
@@ -8075,27 +8737,30 @@
         <v>18</v>
       </c>
       <c r="G218" s="1">
-        <v>43350.5</v>
+        <v>43348.5</v>
       </c>
       <c r="H218" s="1">
-        <v>43350.495138888888</v>
+        <v>43348.512499999997</v>
       </c>
       <c r="I218" s="1">
-        <v>43350.572916666664</v>
+        <v>43348.572916666664</v>
       </c>
       <c r="J218" s="1">
-        <v>43350.563194444447</v>
+        <v>43348.586805555555</v>
       </c>
       <c r="K218" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>0</v>
       </c>
       <c r="B219">
-        <v>5302</v>
+        <v>5301</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -8110,132 +8775,144 @@
         <v>18</v>
       </c>
       <c r="G219" s="1">
+        <v>43349.5</v>
+      </c>
+      <c r="H219" s="1">
+        <v>43349.501388888886</v>
+      </c>
+      <c r="I219" s="1">
+        <v>43349.572916666664</v>
+      </c>
+      <c r="J219" s="1">
+        <v>43349.570833333331</v>
+      </c>
+      <c r="K219" t="s">
+        <v>4</v>
+      </c>
+      <c r="L219" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>5301</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="1">
+        <v>43350.5</v>
+      </c>
+      <c r="H220" s="1">
+        <v>43350.495138888888</v>
+      </c>
+      <c r="I220" s="1">
+        <v>43350.572916666664</v>
+      </c>
+      <c r="J220" s="1">
+        <v>43350.563194444447</v>
+      </c>
+      <c r="K220" t="s">
+        <v>4</v>
+      </c>
+      <c r="L220" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>5302</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="1">
         <v>43344.892361111109</v>
       </c>
-      <c r="H219" s="1">
+      <c r="H221" s="1">
         <v>43344.892361111109</v>
       </c>
-      <c r="I219" s="1">
+      <c r="I221" s="1">
         <v>43344.961805555555</v>
       </c>
-      <c r="J219" s="1">
+      <c r="J221" s="1">
         <v>43344.961805555555</v>
       </c>
-      <c r="K219" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220">
+      <c r="K221" t="s">
+        <v>4</v>
+      </c>
+      <c r="L221" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222">
         <v>5303</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
         <v>18</v>
       </c>
-      <c r="F220" t="s">
-        <v>2</v>
-      </c>
-      <c r="G220" s="1">
+      <c r="F222" t="s">
+        <v>2</v>
+      </c>
+      <c r="G222" s="1">
         <v>43345.375</v>
       </c>
-      <c r="H220" s="1">
+      <c r="H222" s="1">
         <v>43345.366666666669</v>
       </c>
-      <c r="I220" s="1">
+      <c r="I222" s="1">
         <v>43345.447916666664</v>
       </c>
-      <c r="J220" s="1">
+      <c r="J222" s="1">
         <v>43345.43472222222</v>
       </c>
-      <c r="K220" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>0</v>
-      </c>
-      <c r="B221">
+      <c r="K222" t="s">
+        <v>4</v>
+      </c>
+      <c r="L222" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223">
         <v>5305</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1</v>
-      </c>
-      <c r="E221" t="s">
-        <v>18</v>
-      </c>
-      <c r="F221" t="s">
-        <v>2</v>
-      </c>
-      <c r="G221" s="1">
-        <v>43344.760416666664</v>
-      </c>
-      <c r="H221" s="1">
-        <v>43344.756249999999</v>
-      </c>
-      <c r="I221" s="1">
-        <v>43344.833333333336</v>
-      </c>
-      <c r="J221" s="1">
-        <v>43344.830555555556</v>
-      </c>
-      <c r="K221" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>0</v>
-      </c>
-      <c r="B222">
-        <v>5430</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1</v>
-      </c>
-      <c r="E222" t="s">
-        <v>2</v>
-      </c>
-      <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" s="1">
-        <v>43345.399305555555</v>
-      </c>
-      <c r="H222" s="1">
-        <v>43345.399305555555</v>
-      </c>
-      <c r="I222" s="1">
-        <v>43345.472222222219</v>
-      </c>
-      <c r="J222" s="1">
-        <v>43345.472222222219</v>
-      </c>
-      <c r="K222" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>0</v>
-      </c>
-      <c r="B223">
-        <v>5431</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -8250,97 +8927,106 @@
         <v>2</v>
       </c>
       <c r="G223" s="1">
+        <v>43344.760416666664</v>
+      </c>
+      <c r="H223" s="1">
+        <v>43344.756249999999</v>
+      </c>
+      <c r="I223" s="1">
+        <v>43344.833333333336</v>
+      </c>
+      <c r="J223" s="1">
+        <v>43344.830555555556</v>
+      </c>
+      <c r="K223" t="s">
+        <v>4</v>
+      </c>
+      <c r="L223" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>5430</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" s="1">
+        <v>43345.399305555555</v>
+      </c>
+      <c r="H224" s="1">
+        <v>43345.399305555555</v>
+      </c>
+      <c r="I224" s="1">
+        <v>43345.472222222219</v>
+      </c>
+      <c r="J224" s="1">
+        <v>43345.472222222219</v>
+      </c>
+      <c r="K224" t="s">
+        <v>4</v>
+      </c>
+      <c r="L224" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>5431</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" t="s">
+        <v>2</v>
+      </c>
+      <c r="G225" s="1">
         <v>43345.493055555555</v>
       </c>
-      <c r="H223" s="1">
+      <c r="H225" s="1">
         <v>43345.499305555553</v>
       </c>
-      <c r="I223" s="1">
+      <c r="I225" s="1">
         <v>43345.565972222219</v>
       </c>
-      <c r="J223" s="1">
+      <c r="J225" s="1">
         <v>43345.563888888886</v>
       </c>
-      <c r="K223" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>0</v>
-      </c>
-      <c r="B224">
-        <v>6991</v>
-      </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1</v>
-      </c>
-      <c r="E224" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" t="s">
-        <v>2</v>
-      </c>
-      <c r="G224" s="1">
-        <v>43350.552083333336</v>
-      </c>
-      <c r="H224" s="1">
-        <v>43350.548611111109</v>
-      </c>
-      <c r="I224" s="1">
-        <v>43350.600694444445</v>
-      </c>
-      <c r="J224" s="1">
-        <v>43350.588888888888</v>
-      </c>
-      <c r="K224" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>0</v>
-      </c>
-      <c r="B225">
-        <v>6996</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1</v>
-      </c>
-      <c r="E225" t="s">
-        <v>2</v>
-      </c>
-      <c r="F225" t="s">
-        <v>5</v>
-      </c>
-      <c r="G225" s="1">
-        <v>43344.336805555555</v>
-      </c>
-      <c r="H225" s="1">
-        <v>43344.332638888889</v>
-      </c>
-      <c r="I225" s="1">
-        <v>43344.392361111109</v>
-      </c>
-      <c r="J225" s="1">
-        <v>43344.390972222223</v>
-      </c>
       <c r="K225" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L225" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
       <c r="B226">
-        <v>6999</v>
+        <v>9032</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -8349,33 +9035,36 @@
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F226" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G226" s="1">
-        <v>43344.260416666664</v>
+        <v>43349.802083333336</v>
       </c>
       <c r="H226" s="1">
-        <v>43344.261111111111</v>
+        <v>43349.79791666667</v>
       </c>
       <c r="I226" s="1">
-        <v>43344.309027777781</v>
+        <v>43349.875</v>
       </c>
       <c r="J226" s="1">
-        <v>43344.308333333334</v>
+        <v>43349.868055555555</v>
       </c>
       <c r="K226" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L226" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
       <c r="B227">
-        <v>6999</v>
+        <v>9033</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -8384,308 +9073,70 @@
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F227" t="s">
         <v>2</v>
       </c>
       <c r="G227" s="1">
-        <v>43346.263888888891</v>
+        <v>43349.895833333336</v>
       </c>
       <c r="H227" s="1">
-        <v>43346.256249999999</v>
+        <v>43349.888888888891</v>
       </c>
       <c r="I227" s="1">
-        <v>43346.3125</v>
+        <v>43349.96875</v>
       </c>
       <c r="J227" s="1">
-        <v>43346.30972222222</v>
+        <v>43349.960416666669</v>
       </c>
       <c r="K227" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L227" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
       <c r="B228">
-        <v>6999</v>
+        <v>9292</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G228" s="1">
-        <v>43347.263888888891</v>
+        <v>43349.870138888888</v>
       </c>
       <c r="H228" s="1">
-        <v>43347.256944444445</v>
+        <v>43349.870138888888</v>
       </c>
       <c r="I228" s="1">
-        <v>43347.3125</v>
+        <v>43349.970138888886</v>
       </c>
       <c r="J228" s="1">
-        <v>43347.311805555553</v>
+        <v>43349.970138888886</v>
       </c>
       <c r="K228" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>0</v>
-      </c>
-      <c r="B229">
-        <v>6999</v>
-      </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1</v>
-      </c>
-      <c r="E229" t="s">
-        <v>6</v>
-      </c>
-      <c r="F229" t="s">
-        <v>2</v>
-      </c>
-      <c r="G229" s="1">
-        <v>43348.263888888891</v>
-      </c>
-      <c r="H229" s="1">
-        <v>43348.259027777778</v>
-      </c>
-      <c r="I229" s="1">
-        <v>43348.3125</v>
-      </c>
-      <c r="J229" s="1">
-        <v>43348.303472222222</v>
-      </c>
-      <c r="K229" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230">
-        <v>6999</v>
-      </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1</v>
-      </c>
-      <c r="E230" t="s">
-        <v>6</v>
-      </c>
-      <c r="F230" t="s">
-        <v>2</v>
-      </c>
-      <c r="G230" s="1">
-        <v>43349.263888888891</v>
-      </c>
-      <c r="H230" s="1">
-        <v>43349.256249999999</v>
-      </c>
-      <c r="I230" s="1">
-        <v>43349.3125</v>
-      </c>
-      <c r="J230" s="1">
-        <v>43349.299305555556</v>
-      </c>
-      <c r="K230" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>0</v>
-      </c>
-      <c r="B231">
-        <v>6999</v>
-      </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1</v>
-      </c>
-      <c r="E231" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" t="s">
-        <v>2</v>
-      </c>
-      <c r="G231" s="1">
-        <v>43350.263888888891</v>
-      </c>
-      <c r="H231" s="1">
-        <v>43350.259027777778</v>
-      </c>
-      <c r="I231" s="1">
-        <v>43350.3125</v>
-      </c>
-      <c r="J231" s="1">
-        <v>43350.306250000001</v>
-      </c>
-      <c r="K231" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232">
-        <v>9032</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1</v>
-      </c>
-      <c r="E232" t="s">
-        <v>2</v>
-      </c>
-      <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" s="1">
-        <v>43349.802083333336</v>
-      </c>
-      <c r="H232" s="1">
-        <v>43349.79791666667</v>
-      </c>
-      <c r="I232" s="1">
-        <v>43349.875</v>
-      </c>
-      <c r="J232" s="1">
-        <v>43349.868055555555</v>
-      </c>
-      <c r="K232" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>0</v>
-      </c>
-      <c r="B233">
-        <v>9033</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1</v>
-      </c>
-      <c r="E233" t="s">
-        <v>18</v>
-      </c>
-      <c r="F233" t="s">
-        <v>2</v>
-      </c>
-      <c r="G233" s="1">
-        <v>43349.895833333336</v>
-      </c>
-      <c r="H233" s="1">
-        <v>43349.888888888891</v>
-      </c>
-      <c r="I233" s="1">
-        <v>43349.96875</v>
-      </c>
-      <c r="J233" s="1">
-        <v>43349.960416666669</v>
-      </c>
-      <c r="K233" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>0</v>
-      </c>
-      <c r="B234">
-        <v>9290</v>
-      </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1</v>
-      </c>
-      <c r="E234" t="s">
-        <v>2</v>
-      </c>
-      <c r="F234" t="s">
-        <v>6</v>
-      </c>
-      <c r="G234" s="1">
-        <v>43345.777777777781</v>
-      </c>
-      <c r="H234" s="1">
-        <v>43345.775000000001</v>
-      </c>
-      <c r="I234" s="1">
-        <v>43345.836805555555</v>
-      </c>
-      <c r="J234" s="1">
-        <v>43345.828472222223</v>
-      </c>
-      <c r="K234" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>0</v>
-      </c>
-      <c r="B235">
-        <v>9292</v>
-      </c>
-      <c r="C235">
-        <v>4</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1</v>
-      </c>
-      <c r="E235" t="s">
-        <v>2</v>
-      </c>
-      <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" s="1">
-        <v>43349.870138888888</v>
-      </c>
-      <c r="H235" s="1">
-        <v>43349.870138888888</v>
-      </c>
-      <c r="I235" s="1">
-        <v>43349.970138888886</v>
-      </c>
-      <c r="J235" s="1">
-        <v>43349.970138888886</v>
-      </c>
-      <c r="K235" t="s">
-        <v>4</v>
+      <c r="L228" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:F374" xr:uid="{8E3887B9-C2FE-403E-A1F1-B4A7A3EF5490}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>